--- a/result2.xlsx
+++ b/result2.xlsx
@@ -463,10 +463,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.244080100393901</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.448605386398947e-14</v>
+        <v>-0.2369546531981526</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -479,13 +479,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.310892443586118</v>
+        <v>7.637139448472002</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.805065095513931</v>
+        <v>-3.031811187091201</v>
       </c>
       <c r="D3" t="n">
-        <v>1.000028952251048</v>
+        <v>1.000038200894352</v>
       </c>
     </row>
     <row r="4">
@@ -495,13 +495,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.624658153493441</v>
+        <v>6.861764174037878</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.302912923789749</v>
+        <v>-4.488277178385285</v>
       </c>
       <c r="D4" t="n">
-        <v>1.000034529381397</v>
+        <v>1.000045487752171</v>
       </c>
     </row>
     <row r="5">
@@ -511,13 +511,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.669946191659297</v>
+        <v>5.810466697197899</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.645656527858034</v>
+        <v>-5.759997908416087</v>
       </c>
       <c r="D5" t="n">
-        <v>1.000040148814836</v>
+        <v>1.000052837953779</v>
       </c>
     </row>
     <row r="6">
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.480166425836908</v>
+        <v>4.525373463217642</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.785318273518664</v>
+        <v>-6.794906300486617</v>
       </c>
       <c r="D6" t="n">
-        <v>1.000045811034498</v>
+        <v>1.000060252329205</v>
       </c>
     </row>
     <row r="7">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.097297764346221</v>
+        <v>3.058424788879894</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.680889760370946</v>
+        <v>-7.55026157243409</v>
       </c>
       <c r="D7" t="n">
-        <v>1.000051516530902</v>
+        <v>1.000067731723048</v>
       </c>
     </row>
     <row r="8">
@@ -559,13 +559,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.570466970277386</v>
+        <v>1.469352693432799</v>
       </c>
       <c r="C8" t="n">
-        <v>-8.299865326854736</v>
+        <v>-7.994502357900127</v>
       </c>
       <c r="D8" t="n">
-        <v>1.000057265802095</v>
+        <v>1.000075276994804</v>
       </c>
     </row>
     <row r="9">
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9542517851783656</v>
+        <v>-0.1766929364418902</v>
       </c>
       <c r="C9" t="n">
-        <v>-8.619490523476484</v>
+        <v>-8.108667958544745</v>
       </c>
       <c r="D9" t="n">
-        <v>1.000063059353792</v>
+        <v>1.000082889019186</v>
       </c>
     </row>
     <row r="10">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.6932351859197262</v>
+        <v>-1.811778644702354</v>
       </c>
       <c r="C10" t="n">
-        <v>-8.627675634371974</v>
+        <v>-7.887320433953938</v>
       </c>
       <c r="D10" t="n">
-        <v>1.000068897699534</v>
+        <v>1.000090568686474</v>
       </c>
     </row>
     <row r="11">
@@ -607,13 +607,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.312416249176575</v>
+        <v>-3.367977935597277</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.323535399308463</v>
+        <v>-7.338919333464553</v>
       </c>
       <c r="D11" t="n">
-        <v>1.000074781360826</v>
+        <v>1.000098316902853</v>
       </c>
     </row>
     <row r="12">
@@ -623,13 +623,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.844399504860087</v>
+        <v>-4.780204747532477</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.717528849021697</v>
+        <v>-6.485622531846621</v>
       </c>
       <c r="D12" t="n">
-        <v>1.000080710867307</v>
+        <v>1.000106134590776</v>
       </c>
     </row>
     <row r="13">
@@ -639,13 +639,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.233133785985104</v>
+        <v>-5.988972012536776</v>
       </c>
       <c r="C13" t="n">
-        <v>-6.83118719987397</v>
+        <v>-5.36251002677241</v>
       </c>
       <c r="D13" t="n">
-        <v>1.000086686756897</v>
+        <v>1.000114022689328</v>
       </c>
     </row>
     <row r="14">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.427488807314176</v>
+        <v>-6.942957698826089</v>
       </c>
       <c r="C14" t="n">
-        <v>-5.696432582342251</v>
+        <v>-4.016251763898922</v>
       </c>
       <c r="D14" t="n">
-        <v>1.000092709575967</v>
+        <v>1.000121982154603</v>
       </c>
     </row>
     <row r="15">
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7.383182739804282</v>
+        <v>-7.601265969175446</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.354505479879439</v>
+        <v>-2.503264579158239</v>
       </c>
       <c r="D15" t="n">
-        <v>1.000098779879502</v>
+        <v>1.000130013960094</v>
       </c>
     </row>
     <row r="16">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-8.064483383875375</v>
+        <v>-7.935281248233425</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.854533580880615</v>
+        <v>-0.8874261610743334</v>
       </c>
       <c r="D16" t="n">
-        <v>1.000104898231273</v>
+        <v>1.000138119097086</v>
       </c>
     </row>
     <row r="17">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-8.445615909717</v>
+        <v>-7.930027811481825</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.25178873933356</v>
+        <v>0.7625654756930091</v>
       </c>
       <c r="D17" t="n">
-        <v>1.000111065204009</v>
+        <v>1.000146298575066</v>
       </c>
     </row>
     <row r="18">
@@ -719,13 +719,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-8.511819595333609</v>
+        <v>-7.584966511245555</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3943086459143855</v>
+        <v>2.376081109047512</v>
       </c>
       <c r="D18" t="n">
-        <v>1.000117281379582</v>
+        <v>1.000154553422145</v>
       </c>
     </row>
     <row r="19">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-8.260007848975576</v>
+        <v>-6.914182766399527</v>
       </c>
       <c r="C19" t="n">
-        <v>2.022367799536229</v>
+        <v>3.883578760010918</v>
       </c>
       <c r="D19" t="n">
-        <v>1.000123547349181</v>
+        <v>1.00016288468549</v>
       </c>
     </row>
     <row r="20">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-7.698999678788145</v>
+        <v>-5.94594510955237</v>
       </c>
       <c r="C20" t="n">
-        <v>3.571309877183121</v>
+        <v>5.219623609509652</v>
       </c>
       <c r="D20" t="n">
-        <v>1.000129863713507</v>
+        <v>1.000171293431761</v>
       </c>
     </row>
     <row r="21">
@@ -767,13 +767,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-6.849306207027221</v>
+        <v>-4.721640406979502</v>
       </c>
       <c r="C21" t="n">
-        <v>4.982670363162431</v>
+        <v>6.325778207776106</v>
       </c>
       <c r="D21" t="n">
-        <v>1.000136231082962</v>
+        <v>1.000179780747577</v>
       </c>
     </row>
     <row r="22">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-5.742472282484191</v>
+        <v>-3.294119229322968</v>
       </c>
       <c r="C22" t="n">
-        <v>6.20283489908256</v>
+        <v>7.153234120408064</v>
       </c>
       <c r="D22" t="n">
-        <v>1.000142650077845</v>
+        <v>1.000188347739977</v>
       </c>
     </row>
     <row r="23">
@@ -799,13 +799,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-4.419990129163995</v>
+        <v>-1.725511574026288</v>
       </c>
       <c r="C23" t="n">
-        <v>7.18512249414665</v>
+        <v>7.665064193529492</v>
       </c>
       <c r="D23" t="n">
-        <v>1.000149121328553</v>
+        <v>1.000196995536906</v>
       </c>
     </row>
     <row r="24">
@@ -815,13 +815,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-2.931818651416019</v>
+        <v>-0.08459802390613771</v>
       </c>
       <c r="C24" t="n">
-        <v>7.891633972349961</v>
+        <v>7.837988226093001</v>
       </c>
       <c r="D24" t="n">
-        <v>1.000155645475792</v>
+        <v>1.000205725287709</v>
       </c>
     </row>
     <row r="25">
@@ -831,13 +831,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.334557851259498</v>
+        <v>1.556156696130509</v>
       </c>
       <c r="C25" t="n">
-        <v>8.294790661864321</v>
+        <v>7.663563604313251</v>
       </c>
       <c r="D25" t="n">
-        <v>1.000162223170781</v>
+        <v>1.000214538163643</v>
       </c>
     </row>
     <row r="26">
@@ -847,13 +847,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3106578315339072</v>
+        <v>3.123783009879515</v>
       </c>
       <c r="C26" t="n">
-        <v>8.378498551801558</v>
+        <v>7.148735729731255</v>
       </c>
       <c r="D26" t="n">
-        <v>1.000168855075476</v>
+        <v>1.000223435358403</v>
       </c>
     </row>
     <row r="27">
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.940471171019845</v>
+        <v>4.548061107191222</v>
       </c>
       <c r="C27" t="n">
-        <v>8.138886131300815</v>
+        <v>6.315709978915268</v>
       </c>
       <c r="D27" t="n">
-        <v>1.000175541862786</v>
+        <v>1.000232418088657</v>
       </c>
     </row>
     <row r="28">
@@ -879,13 +879,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.491733056922393</v>
+        <v>5.764706378976283</v>
       </c>
       <c r="C28" t="n">
-        <v>7.584579467660509</v>
+        <v>5.201136391103732</v>
       </c>
       <c r="D28" t="n">
-        <v>1.000182284216805</v>
+        <v>1.000241487594608</v>
       </c>
     </row>
     <row r="29">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.903960325174525</v>
+        <v>6.718340474588577</v>
       </c>
       <c r="C29" t="n">
-        <v>6.736495250139789</v>
+        <v>3.854629052954703</v>
       </c>
       <c r="D29" t="n">
-        <v>1.000189082833044</v>
+        <v>1.000250645140558</v>
       </c>
     </row>
     <row r="30">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.121725043514078</v>
+        <v>7.365108660177039</v>
       </c>
       <c r="C30" t="n">
-        <v>5.627150910357755</v>
+        <v>2.33667288951856</v>
       </c>
       <c r="D30" t="n">
-        <v>1.000195938418668</v>
+        <v>1.000259892015507</v>
       </c>
     </row>
     <row r="31">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.096880284922787</v>
+        <v>7.674816561202618</v>
       </c>
       <c r="C31" t="n">
-        <v>4.299509845895082</v>
+        <v>0.7159998762166982</v>
       </c>
       <c r="D31" t="n">
-        <v>1.000202851692745</v>
+        <v>1.00026922953375</v>
       </c>
     </row>
     <row r="32">
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7.790531681206996</v>
+        <v>7.632477978013934</v>
       </c>
       <c r="C32" t="n">
-        <v>2.805398492577259</v>
+        <v>-0.9334568356663058</v>
       </c>
       <c r="D32" t="n">
-        <v>1.000209823386493</v>
+        <v>1.000278659035505</v>
       </c>
     </row>
     <row r="33">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.174672011145397</v>
+        <v>7.239189641608865</v>
       </c>
       <c r="C33" t="n">
-        <v>1.203549766650037</v>
+        <v>-2.535900059137877</v>
       </c>
       <c r="D33" t="n">
-        <v>1.000216854243542</v>
+        <v>1.000288181887555</v>
       </c>
     </row>
     <row r="34">
@@ -975,13 +975,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.233407543075234</v>
+        <v>6.512277615132813</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.4426565049456557</v>
+        <v>-4.017149162349933</v>
       </c>
       <c r="D34" t="n">
-        <v>1.000223945020196</v>
+        <v>1.000297799483909</v>
       </c>
     </row>
     <row r="35">
@@ -991,13 +991,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7.963719474402513</v>
+        <v>5.484692378197733</v>
       </c>
       <c r="C35" t="n">
-        <v>-2.067671824793632</v>
+        <v>-5.308105622047501</v>
       </c>
       <c r="D35" t="n">
-        <v>1.000231096485706</v>
+        <v>1.000307513246485</v>
       </c>
     </row>
     <row r="36">
@@ -1007,13 +1007,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.375721105246799</v>
+        <v>4.20366407642831</v>
       </c>
       <c r="C36" t="n">
-        <v>-3.606380870023116</v>
+        <v>-6.348041432598953</v>
       </c>
       <c r="D36" t="n">
-        <v>1.000238309422544</v>
+        <v>1.000317324625812</v>
       </c>
     </row>
     <row r="37">
@@ -1023,13 +1023,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.492390740162073</v>
+        <v>2.728664440838594</v>
       </c>
       <c r="C37" t="n">
-        <v>-4.9967246781748</v>
+        <v>-7.087552132326601</v>
       </c>
       <c r="D37" t="n">
-        <v>1.000245584626694</v>
+        <v>1.00032723510175</v>
       </c>
     </row>
     <row r="38">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.348781015035857</v>
+        <v>1.128755851173374</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.18223964166196</v>
+        <v>-7.491027664071309</v>
       </c>
       <c r="D38" t="n">
-        <v>1.00025292290794</v>
+        <v>1.000337246184241</v>
       </c>
     </row>
     <row r="39">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.990726599514549</v>
+        <v>-0.5205607151702802</v>
       </c>
       <c r="C39" t="n">
-        <v>-7.114407699489629</v>
+        <v>-7.538513072204798</v>
       </c>
       <c r="D39" t="n">
-        <v>1.000260325090173</v>
+        <v>1.000347359414074</v>
       </c>
     </row>
     <row r="40">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.473093180667568</v>
+        <v>-2.140860133220438</v>
       </c>
       <c r="C40" t="n">
-        <v>-7.754718323152583</v>
+        <v>-7.226856537109944</v>
       </c>
       <c r="D40" t="n">
-        <v>1.000267792011688</v>
+        <v>1.000357576363679</v>
       </c>
     </row>
     <row r="41">
@@ -1087,13 +1087,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.857630424020146</v>
+        <v>-3.654510038857939</v>
       </c>
       <c r="C41" t="n">
-        <v>-8.076352315580849</v>
+        <v>-6.570073495943185</v>
       </c>
       <c r="D41" t="n">
-        <v>1.000275324525514</v>
+        <v>1.000367898637942</v>
       </c>
     </row>
     <row r="42">
@@ -1103,13 +1103,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.7894906176947418</v>
+        <v>-4.988416019818927</v>
       </c>
       <c r="C42" t="n">
-        <v>-8.065410828067723</v>
+        <v>-5.598891312232404</v>
       </c>
       <c r="D42" t="n">
-        <v>1.000282923499728</v>
+        <v>1.000378327875046</v>
       </c>
     </row>
     <row r="43">
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-2.400360219426957</v>
+        <v>-6.077614626184535</v>
       </c>
       <c r="C43" t="n">
-        <v>-7.721629927896307</v>
+        <v>-4.359477581514568</v>
       </c>
       <c r="D43" t="n">
-        <v>1.000290589817794</v>
+        <v>1.000388865747345</v>
       </c>
     </row>
     <row r="44">
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-3.908125964188776</v>
+        <v>-6.868536011181167</v>
       </c>
       <c r="C44" t="n">
-        <v>-7.058540933835868</v>
+        <v>-2.911394930988123</v>
       </c>
       <c r="D44" t="n">
-        <v>1.000298324378905</v>
+        <v>1.000399513962252</v>
       </c>
     </row>
     <row r="45">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-5.249787822685463</v>
+        <v>-7.321769070405394</v>
       </c>
       <c r="C45" t="n">
-        <v>-6.103058847743752</v>
+        <v>-1.324864189392893</v>
       </c>
       <c r="D45" t="n">
-        <v>1.000306128098333</v>
+        <v>1.00041027426317</v>
       </c>
     </row>
     <row r="46">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-6.368875421952352</v>
+        <v>-7.414181588865449</v>
       </c>
       <c r="C46" t="n">
-        <v>-4.894504697477257</v>
+        <v>0.3225458768724562</v>
       </c>
       <c r="D46" t="n">
-        <v>1.00031400190779</v>
+        <v>1.000421148430442</v>
       </c>
     </row>
     <row r="47">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-7.217892680455961</v>
+        <v>-7.140275498373615</v>
       </c>
       <c r="C47" t="n">
-        <v>-3.483091528500737</v>
+        <v>1.949652343454075</v>
       </c>
       <c r="D47" t="n">
-        <v>1.000321946755799</v>
+        <v>1.000432138282337</v>
       </c>
     </row>
     <row r="48">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-7.760421980495661</v>
+        <v>-6.512691837691484</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.92792714414335</v>
+        <v>3.475640137915474</v>
       </c>
       <c r="D48" t="n">
-        <v>1.000329963608079</v>
+        <v>1.000443245676062</v>
       </c>
     </row>
     <row r="49">
@@ -1215,13 +1215,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-7.972791816625227</v>
+        <v>-5.56181994759947</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.2946084883463003</v>
+        <v>4.824099499050613</v>
       </c>
       <c r="D49" t="n">
-        <v>1.000338053447928</v>
+        <v>1.000454472508814</v>
       </c>
     </row>
     <row r="50">
@@ -1231,13 +1231,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-7.845228061741996</v>
+        <v>-4.334509036979716</v>
       </c>
       <c r="C50" t="n">
-        <v>1.347498191078995</v>
+        <v>5.926917674759521</v>
       </c>
       <c r="D50" t="n">
-        <v>1.000346217276634</v>
+        <v>1.000465820718862</v>
       </c>
     </row>
     <row r="51">
@@ -1247,13 +1247,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-7.382429088211155</v>
+        <v>-2.891925472189817</v>
       </c>
       <c r="C51" t="n">
-        <v>2.928181475916347</v>
+        <v>6.727825071777558</v>
       </c>
       <c r="D51" t="n">
-        <v>1.00035445611388</v>
+        <v>1.000477292286665</v>
       </c>
     </row>
     <row r="52">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-6.603528239426535</v>
+        <v>-1.306643742877981</v>
       </c>
       <c r="C52" t="n">
-        <v>4.379391755993127</v>
+        <v>7.185407674932624</v>
       </c>
       <c r="D52" t="n">
-        <v>1.000362770998174</v>
+        <v>1.000488889236025</v>
       </c>
     </row>
     <row r="53">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-5.541432672173873</v>
+        <v>0.3408992558142773</v>
       </c>
       <c r="C53" t="n">
-        <v>5.63820297126712</v>
+        <v>7.275419160089477</v>
       </c>
       <c r="D53" t="n">
-        <v>1.000371162987284</v>
+        <v>1.000500613635281</v>
       </c>
     </row>
     <row r="54">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-4.24155435340553</v>
+        <v>1.966420467804633</v>
       </c>
       <c r="C54" t="n">
-        <v>6.64959976227555</v>
+        <v>6.992257034497845</v>
       </c>
       <c r="D54" t="n">
-        <v>1.000379633158688</v>
+        <v>1.000512467598543</v>
       </c>
     </row>
     <row r="55">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-2.759975873597975</v>
+        <v>3.486082037834457</v>
       </c>
       <c r="C55" t="n">
-        <v>7.368964996320989</v>
+        <v>6.349506139846939</v>
       </c>
       <c r="D55" t="n">
-        <v>1.000388182610029</v>
+        <v>1.000524453286961</v>
       </c>
     </row>
     <row r="56">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1.161119560468854</v>
+        <v>4.820842208349372</v>
       </c>
       <c r="C56" t="n">
-        <v>7.764152561484455</v>
+        <v>5.379498259875249</v>
       </c>
       <c r="D56" t="n">
-        <v>1.000396812459597</v>
+        <v>1.000536572910048</v>
       </c>
     </row>
     <row r="57">
@@ -1343,13 +1343,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.4849880307652693</v>
+        <v>5.900640505168621</v>
       </c>
       <c r="C57" t="n">
-        <v>7.81704560673228</v>
+        <v>4.131886285667545</v>
       </c>
       <c r="D57" t="n">
-        <v>1.000405523846813</v>
+        <v>1.000548828727035</v>
       </c>
     </row>
     <row r="58">
@@ -1359,13 +1359,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.105743931614417</v>
+        <v>6.668193754850826</v>
       </c>
       <c r="C58" t="n">
-        <v>7.524520566995424</v>
+        <v>2.671282982610105</v>
       </c>
       <c r="D58" t="n">
-        <v>1.00041431793273</v>
+        <v>1.00056122304828</v>
       </c>
     </row>
     <row r="59">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3.629160683413158</v>
+        <v>7.082193105943228</v>
       </c>
       <c r="C59" t="n">
-        <v>6.89876162433034</v>
+        <v>1.074065233743325</v>
       </c>
       <c r="D59" t="n">
-        <v>1.000423195900548</v>
+        <v>1.000573758236724</v>
       </c>
     </row>
     <row r="60">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4.987083525901361</v>
+        <v>7.119717473302342</v>
       </c>
       <c r="C60" t="n">
-        <v>5.966897783128896</v>
+        <v>-0.5755080207241408</v>
       </c>
       <c r="D60" t="n">
-        <v>1.000432158956149</v>
+        <v>1.000586436709398</v>
       </c>
     </row>
     <row r="61">
@@ -1407,13 +1407,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>6.118289252199319</v>
+        <v>6.777714837244877</v>
       </c>
       <c r="C61" t="n">
-        <v>4.76996436000318</v>
+        <v>-2.189674739786931</v>
       </c>
       <c r="D61" t="n">
-        <v>1.000441208328639</v>
+        <v>1.000599260938975</v>
       </c>
     </row>
     <row r="62">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>6.97132469237442</v>
+        <v>6.073448137053726</v>
       </c>
       <c r="C62" t="n">
-        <v>3.361221148876574</v>
+        <v>-3.681823664995768</v>
       </c>
       <c r="D62" t="n">
-        <v>1.00045034527091</v>
+        <v>1.000612233455385</v>
       </c>
     </row>
     <row r="63">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>7.50695082251084</v>
+        <v>5.043855058345093</v>
       </c>
       <c r="C63" t="n">
-        <v>1.803889471264987</v>
+        <v>-4.971179353809106</v>
       </c>
       <c r="D63" t="n">
-        <v>1.00045957106022</v>
+        <v>1.000625356847482</v>
       </c>
     </row>
     <row r="64">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>7.700072872987757</v>
+        <v>3.743828289830901</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1683983810458733</v>
+        <v>-5.987265177520177</v>
       </c>
       <c r="D64" t="n">
-        <v>1.000468886998787</v>
+        <v>1.00063863376477</v>
       </c>
     </row>
     <row r="65">
@@ -1471,13 +1471,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>7.541057102120045</v>
+        <v>2.24348189887019</v>
       </c>
       <c r="C65" t="n">
-        <v>-1.470744887932384</v>
+        <v>-6.673895141278917</v>
       </c>
       <c r="D65" t="n">
-        <v>1.000478294414404</v>
+        <v>1.000652066919191</v>
       </c>
     </row>
     <row r="66">
@@ -1487,13 +1487,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>7.036360393873765</v>
+        <v>0.6245271855336791</v>
       </c>
       <c r="C66" t="n">
-        <v>-3.038324821478636</v>
+        <v>-6.992463244147777</v>
       </c>
       <c r="D66" t="n">
-        <v>1.000487794661066</v>
+        <v>1.000665659086974</v>
       </c>
     </row>
     <row r="67">
@@ -1503,13 +1503,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6.208428545946545</v>
+        <v>-1.024065521945427</v>
       </c>
       <c r="C67" t="n">
-        <v>-4.461877739950241</v>
+        <v>-6.924330397101721</v>
       </c>
       <c r="D67" t="n">
-        <v>1.000497389119621</v>
+        <v>1.000679413110556</v>
       </c>
     </row>
     <row r="68">
@@ -1519,13 +1519,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5.094851815530282</v>
+        <v>-2.610897322042657</v>
       </c>
       <c r="C68" t="n">
-        <v>-5.675083762449354</v>
+        <v>-6.472152513741275</v>
       </c>
       <c r="D68" t="n">
-        <v>1.000507079198442</v>
+        <v>1.000693331900565</v>
       </c>
     </row>
     <row r="69">
@@ -1535,13 +1535,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3.746800572317486</v>
+        <v>-4.047206925498063</v>
       </c>
       <c r="C69" t="n">
-        <v>-6.620931132055715</v>
+        <v>-5.660047395531923</v>
       </c>
       <c r="D69" t="n">
-        <v>1.000516866334112</v>
+        <v>1.000707418437878</v>
       </c>
     </row>
     <row r="70">
@@ -1551,13 +1551,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2.226798225981951</v>
+        <v>-5.251894399706139</v>
       </c>
       <c r="C70" t="n">
-        <v>-7.254499720272951</v>
+        <v>-4.532559883633829</v>
       </c>
       <c r="D70" t="n">
-        <v>1.000526751992135</v>
+        <v>1.000721675775758</v>
       </c>
     </row>
     <row r="71">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.6059213355082761</v>
+        <v>-6.156217518057562</v>
       </c>
       <c r="C71" t="n">
-        <v>-7.545224245094663</v>
+        <v>-3.152451301813085</v>
       </c>
       <c r="D71" t="n">
-        <v>1.000536737667671</v>
+        <v>1.000736107042062</v>
       </c>
     </row>
     <row r="72">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-1.039453636703181</v>
+        <v>-6.707884907390129</v>
       </c>
       <c r="C72" t="n">
-        <v>-7.478518493057105</v>
+        <v>-1.597406900020363</v>
       </c>
       <c r="D72" t="n">
-        <v>1.000546824886285</v>
+        <v>1.000750715441535</v>
       </c>
     </row>
     <row r="73">
@@ -1599,13 +1599,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-2.631212616595199</v>
+        <v>-6.874295465565234</v>
       </c>
       <c r="C73" t="n">
-        <v>-7.056668910947162</v>
+        <v>0.04417999263193417</v>
       </c>
       <c r="D73" t="n">
-        <v>1.000557015204726</v>
+        <v>1.000765504258189</v>
       </c>
     </row>
     <row r="74">
@@ -1615,13 +1615,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-4.093212174634761</v>
+        <v>-6.644714217101005</v>
       </c>
       <c r="C74" t="n">
-        <v>-6.298938274330869</v>
+        <v>1.678129946074132</v>
       </c>
       <c r="D74" t="n">
-        <v>1.000567310211728</v>
+        <v>1.00078047685777</v>
       </c>
     </row>
     <row r="75">
@@ -1631,13 +1631,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-5.354959099934835</v>
+        <v>-6.031229243240878</v>
       </c>
       <c r="C75" t="n">
-        <v>-5.240856396310541</v>
+        <v>3.209840162416594</v>
       </c>
       <c r="D75" t="n">
-        <v>1.000577711528836</v>
+        <v>1.000795636690319</v>
       </c>
     </row>
     <row r="76">
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-6.355083122079487</v>
+        <v>-5.068400030637903</v>
       </c>
       <c r="C76" t="n">
-        <v>-3.93271341186971</v>
+        <v>4.549787888023179</v>
       </c>
       <c r="D76" t="n">
-        <v>1.000588220811257</v>
+        <v>1.000810987292825</v>
       </c>
     </row>
     <row r="77">
@@ -1663,13 +1663,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-7.044429608653579</v>
+        <v>-3.811581204047533</v>
       </c>
       <c r="C77" t="n">
-        <v>-2.437310279658924</v>
+        <v>5.618855910708302</v>
       </c>
       <c r="D77" t="n">
-        <v>1.000598839748736</v>
+        <v>1.000826532291987</v>
       </c>
     </row>
     <row r="78">
@@ -1679,13 +1679,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-7.388612673189346</v>
+        <v>-2.333983173264017</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.8270588986753626</v>
+        <v>6.353161064867481</v>
       </c>
       <c r="D78" t="n">
-        <v>1.000609570066465</v>
+        <v>1.000842275407077</v>
       </c>
     </row>
     <row r="79">
@@ -1695,13 +1695,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-7.36989101189859</v>
+        <v>-0.7226083164064483</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8194412604443057</v>
+        <v>6.708085099961173</v>
       </c>
       <c r="D79" t="n">
-        <v>1.000620413526017</v>
+        <v>1.000858220452912</v>
       </c>
     </row>
     <row r="80">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-6.98825819430378</v>
+        <v>0.9267266860431949</v>
       </c>
       <c r="C80" t="n">
-        <v>2.421193687486311</v>
+        <v>6.661244415782946</v>
       </c>
       <c r="D80" t="n">
-        <v>1.000631371926306</v>
+        <v>1.000874371342946</v>
       </c>
     </row>
     <row r="81">
@@ -1727,13 +1727,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-6.261674902749747</v>
+        <v>2.515009430593898</v>
       </c>
       <c r="C81" t="n">
-        <v>3.898783520236982</v>
+        <v>6.214189695013063</v>
       </c>
       <c r="D81" t="n">
-        <v>1.000642447104588</v>
+        <v>1.000890732092479</v>
       </c>
     </row>
     <row r="82">
@@ -1743,13 +1743,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-5.225411220105416</v>
+        <v>3.945969933075236</v>
       </c>
       <c r="C82" t="n">
-        <v>5.178350825984641</v>
+        <v>5.392695909072831</v>
       </c>
       <c r="D82" t="n">
-        <v>1.000653640937482</v>
+        <v>1.000907306821992</v>
       </c>
     </row>
     <row r="83">
@@ -1759,13 +1759,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-3.930510664292322</v>
+        <v>5.131986098180978</v>
       </c>
       <c r="C83" t="n">
-        <v>6.195359545172716</v>
+        <v>4.245584033052051</v>
       </c>
       <c r="D83" t="n">
-        <v>1.000664955342034</v>
+        <v>1.000924099760622</v>
       </c>
     </row>
     <row r="84">
@@ -1775,13 +1775,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-2.441432189148483</v>
+        <v>5.999593672984608</v>
       </c>
       <c r="C84" t="n">
-        <v>6.89796761604881</v>
+        <v>2.842103681873871</v>
       </c>
       <c r="D84" t="n">
-        <v>1.00067639227681</v>
+        <v>1.000941115249759</v>
       </c>
     </row>
     <row r="85">
@@ -1791,13 +1791,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.8329695990312709</v>
+        <v>6.49424916262259</v>
       </c>
       <c r="C85" t="n">
-        <v>7.249818240137639</v>
+        <v>1.267995697467742</v>
       </c>
       <c r="D85" t="n">
-        <v>1.000687953743024</v>
+        <v>1.000958357746806</v>
       </c>
     </row>
     <row r="86">
@@ -1807,13 +1807,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.8134124906953198</v>
+        <v>6.584027818806094</v>
       </c>
       <c r="C86" t="n">
-        <v>7.232096349074342</v>
+        <v>-0.3795600050485053</v>
       </c>
       <c r="D86" t="n">
-        <v>1.000699641785709</v>
+        <v>1.000975831829077</v>
       </c>
     </row>
     <row r="87">
@@ -1823,13 +1823,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2.413653046227975</v>
+        <v>6.261993764552389</v>
       </c>
       <c r="C87" t="n">
-        <v>6.844727254102089</v>
+        <v>-1.997828854127914</v>
       </c>
       <c r="D87" t="n">
-        <v>1.000711458494922</v>
+        <v>1.000993542197863</v>
       </c>
     </row>
     <row r="88">
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>3.885379986250481</v>
+        <v>5.547053202985072</v>
       </c>
       <c r="C88" t="n">
-        <v>6.106634868447544</v>
+        <v>-3.484893073798995</v>
       </c>
       <c r="D88" t="n">
-        <v>1.000723406006987</v>
+        <v>1.001011493682656</v>
       </c>
     </row>
     <row r="89">
@@ -1855,13 +1855,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5.152190252039001</v>
+        <v>4.483190749845962</v>
       </c>
       <c r="C89" t="n">
-        <v>5.055023008931441</v>
+        <v>-4.746121316743526</v>
       </c>
       <c r="D89" t="n">
-        <v>1.000735486505787</v>
+        <v>1.001029691245553</v>
       </c>
     </row>
     <row r="90">
@@ -1871,13 +1871,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6.147702027595337</v>
+        <v>3.137088319717376</v>
       </c>
       <c r="C90" t="n">
-        <v>3.743692945691315</v>
+        <v>-5.700326875101868</v>
       </c>
       <c r="D90" t="n">
-        <v>1.000747702224091</v>
+        <v>1.001048139985844</v>
       </c>
     </row>
     <row r="91">
@@ -1887,13 +1887,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>6.819161694357899</v>
+        <v>1.594229830133499</v>
       </c>
       <c r="C91" t="n">
-        <v>2.240461129918069</v>
+        <v>-6.285209496761175</v>
       </c>
       <c r="D91" t="n">
-        <v>1.000760055444929</v>
+        <v>1.001066845144784</v>
       </c>
     </row>
     <row r="92">
@@ -1903,13 +1903,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>7.130404848793562</v>
+        <v>-0.04630321820273901</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6237902675829536</v>
+        <v>-6.461706854578554</v>
       </c>
       <c r="D92" t="n">
-        <v>1.000772548503021</v>
+        <v>1.001085812110573</v>
       </c>
     </row>
     <row r="93">
@@ -1919,13 +1919,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>7.063998667647617</v>
+        <v>-1.67804720544344</v>
       </c>
       <c r="C93" t="n">
-        <v>-1.021208043459834</v>
+        <v>-6.216938474055699</v>
       </c>
       <c r="D93" t="n">
-        <v>1.000785183786238</v>
+        <v>1.001105046423546</v>
       </c>
     </row>
     <row r="94">
@@ -1935,13 +1935,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>6.622431062678657</v>
+        <v>-3.194007128446906</v>
       </c>
       <c r="C94" t="n">
-        <v>-2.607202605609787</v>
+        <v>-5.565505045494229</v>
       </c>
       <c r="D94" t="n">
-        <v>1.000797963737132</v>
+        <v>1.001124553781584</v>
       </c>
     </row>
     <row r="95">
@@ -1951,13 +1951,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5.828258818315479</v>
+        <v>-4.493710407139158</v>
       </c>
       <c r="C95" t="n">
-        <v>-4.049278138136708</v>
+        <v>-4.549005469814698</v>
       </c>
       <c r="D95" t="n">
-        <v>1.000810890854505</v>
+        <v>1.001144340045753</v>
       </c>
     </row>
     <row r="96">
@@ -1967,13 +1967,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>4.72318010619236</v>
+        <v>-5.490001273037596</v>
       </c>
       <c r="C96" t="n">
-        <v>-5.26953316626425</v>
+        <v>-3.2337471261699</v>
       </c>
       <c r="D96" t="n">
-        <v>1.00082396769504</v>
+        <v>1.001164411246197</v>
       </c>
     </row>
     <row r="97">
@@ -1983,13 +1983,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>3.366053821246103</v>
+        <v>-6.115112529246096</v>
       </c>
       <c r="C97" t="n">
-        <v>-6.201390789044027</v>
+        <v>-1.706744861154752</v>
       </c>
       <c r="D97" t="n">
-        <v>1.000837196874986</v>
+        <v>1.001184773588278</v>
       </c>
     </row>
     <row r="98">
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1.82994614974048</v>
+        <v>-6.325581951277111</v>
       </c>
       <c r="C98" t="n">
-        <v>-6.793380543148091</v>
+        <v>-0.0702233604130174</v>
       </c>
       <c r="D98" t="n">
-        <v>1.000850581071903</v>
+        <v>1.001205433458993</v>
       </c>
     </row>
     <row r="99">
@@ -2015,13 +2015,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.1983405303909045</v>
+        <v>-6.105641899422365</v>
       </c>
       <c r="C99" t="n">
-        <v>-7.012170801429881</v>
+        <v>1.565052265770552</v>
       </c>
       <c r="D99" t="n">
-        <v>1.000864123026467</v>
+        <v>1.001226397433673</v>
       </c>
     </row>
     <row r="100">
@@ -2031,13 +2031,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-1.439302457359178</v>
+        <v>-5.468800322831947</v>
       </c>
       <c r="C100" t="n">
-        <v>-6.844665300954195</v>
+        <v>3.087199698290054</v>
       </c>
       <c r="D100" t="n">
-        <v>1.000877825544343</v>
+        <v>1.001247672282976</v>
       </c>
     </row>
     <row r="101">
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-2.992406772007641</v>
+        <v>-4.457444632370415</v>
       </c>
       <c r="C101" t="n">
-        <v>-6.299023164082968</v>
+        <v>4.390909661192524</v>
       </c>
       <c r="D101" t="n">
-        <v>1.000891691498122</v>
+        <v>1.001269264980206</v>
       </c>
     </row>
     <row r="102">
@@ -2063,13 +2063,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-4.374304786012685</v>
+        <v>-3.1404303487718</v>
       </c>
       <c r="C102" t="n">
-        <v>-5.404517124588666</v>
+        <v>5.384878160088404</v>
       </c>
       <c r="D102" t="n">
-        <v>1.000905723829329</v>
+        <v>1.001291182708949</v>
       </c>
     </row>
     <row r="103">
@@ -2079,13 +2079,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-5.507146455773651</v>
+        <v>-1.608755827197536</v>
       </c>
       <c r="C103" t="n">
-        <v>-4.210206926317213</v>
+        <v>5.998452246862059</v>
       </c>
       <c r="D103" t="n">
-        <v>1.0009199255505</v>
+        <v>1.00131343287107</v>
       </c>
     </row>
     <row r="104">
@@ -2095,13 +2095,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-6.326414262070061</v>
+        <v>0.03043660011781732</v>
       </c>
       <c r="C104" t="n">
-        <v>-2.78247082781986</v>
+        <v>6.186994513295641</v>
       </c>
       <c r="D104" t="n">
-        <v>1.000934299747344</v>
+        <v>1.001336023095066</v>
       </c>
     </row>
     <row r="105">
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-6.784777510690035</v>
+        <v>1.661163926662842</v>
       </c>
       <c r="C105" t="n">
-        <v>-1.201504252487618</v>
+        <v>5.935541960197979</v>
       </c>
       <c r="D105" t="n">
-        <v>1.000948849580971</v>
+        <v>1.001358961244818</v>
       </c>
     </row>
     <row r="106">
@@ -2127,13 +2127,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-6.85504839456921</v>
+        <v>3.166732332618453</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4430428912988607</v>
+        <v>5.260439171736643</v>
       </c>
       <c r="D106" t="n">
-        <v>1.000963578290217</v>
+        <v>1.001382255428743</v>
       </c>
     </row>
     <row r="107">
@@ -2143,13 +2143,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-6.532045791750845</v>
+        <v>4.438136001365336</v>
       </c>
       <c r="C107" t="n">
-        <v>2.05706357960045</v>
+        <v>4.208758273794289</v>
       </c>
       <c r="D107" t="n">
-        <v>1.000978489194038</v>
+        <v>1.00140591400938</v>
       </c>
     </row>
     <row r="108">
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-5.833229270583321</v>
+        <v>5.382124081313656</v>
       </c>
       <c r="C108" t="n">
-        <v>3.547354862258755</v>
+        <v>2.855470978015819</v>
       </c>
       <c r="D108" t="n">
-        <v>1.000993585694013</v>
+        <v>1.001429945613429</v>
       </c>
     </row>
     <row r="109">
@@ -2175,13 +2175,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-4.798032511247059</v>
+        <v>5.928333576918203</v>
       </c>
       <c r="C109" t="n">
-        <v>4.827041729261896</v>
+        <v>1.298501104539925</v>
       </c>
       <c r="D109" t="n">
-        <v>1.001008871276925</v>
+        <v>1.001454359142274</v>
       </c>
     </row>
     <row r="110">
@@ -2191,13 +2191,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-3.485898908129841</v>
+        <v>6.034928910936348</v>
       </c>
       <c r="C110" t="n">
-        <v>5.820748609869994</v>
+        <v>-0.3480520937399107</v>
       </c>
       <c r="D110" t="n">
-        <v>1.001024349517446</v>
+        <v>1.001479163783008</v>
       </c>
     </row>
     <row r="111">
@@ -2207,13 +2207,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-1.973098486075314</v>
+        <v>5.692275657598442</v>
       </c>
       <c r="C111" t="n">
-        <v>6.469207512057215</v>
+        <v>-1.962080825819056</v>
       </c>
       <c r="D111" t="n">
-        <v>1.001040024080926</v>
+        <v>1.001504369019995</v>
       </c>
     </row>
     <row r="112">
@@ -2223,13 +2223,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-0.348480060793422</v>
+        <v>4.924302617111222</v>
       </c>
       <c r="C112" t="n">
-        <v>6.733014418711504</v>
+        <v>-3.42246345002577</v>
       </c>
       <c r="D112" t="n">
-        <v>1.001055898726283</v>
+        <v>1.001529984647005</v>
       </c>
     </row>
     <row r="113">
@@ -2239,13 +2239,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1.291618726021542</v>
+        <v>3.787365818095765</v>
       </c>
       <c r="C113" t="n">
-        <v>6.59528625475452</v>
+        <v>-4.618237138916924</v>
       </c>
       <c r="D113" t="n">
-        <v>1.001071977309013</v>
+        <v>1.001556020779937</v>
       </c>
     </row>
     <row r="114">
@@ -2255,13 +2255,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2.849022667755408</v>
+        <v>2.366610040567831</v>
       </c>
       <c r="C114" t="n">
-        <v>6.063027949057954</v>
+        <v>-5.457256221310801</v>
       </c>
       <c r="D114" t="n">
-        <v>1.001088263784307</v>
+        <v>1.001582487870185</v>
       </c>
     </row>
     <row r="115">
@@ -2271,13 +2271,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>4.229607034916304</v>
+        <v>0.7700154525790027</v>
       </c>
       <c r="C115" t="n">
-        <v>5.167090179026569</v>
+        <v>-5.873652332729791</v>
       </c>
       <c r="D115" t="n">
-        <v>1.001104762210297</v>
+        <v>1.001609396718669</v>
       </c>
     </row>
     <row r="116">
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>5.34907205878423</v>
+        <v>-0.8794953019232309</v>
       </c>
       <c r="C116" t="n">
-        <v>3.960679660645671</v>
+        <v>-5.833474343959814</v>
       </c>
       <c r="D116" t="n">
-        <v>1.001121476751426</v>
+        <v>1.001636758490583</v>
       </c>
     </row>
     <row r="117">
@@ -2303,13 +2303,13 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>6.138247998106509</v>
+        <v>-2.453345661807803</v>
       </c>
       <c r="C117" t="n">
-        <v>2.516470865562066</v>
+        <v>-5.337999778829359</v>
       </c>
       <c r="D117" t="n">
-        <v>1.001138411681949</v>
+        <v>1.001664584730891</v>
       </c>
     </row>
     <row r="118">
@@ -2319,13 +2319,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>6.547591046445915</v>
+        <v>-3.827310542438637</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9224557421037716</v>
+        <v>-4.424369379379398</v>
       </c>
       <c r="D118" t="n">
-        <v>1.001155571389585</v>
+        <v>1.001692887380622</v>
       </c>
     </row>
     <row r="119">
@@ -2335,13 +2335,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>6.550568155482241</v>
+        <v>-4.891471340495245</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.7232490023224121</v>
+        <v>-3.163392854664149</v>
       </c>
       <c r="D119" t="n">
-        <v>1.001172960379298</v>
+        <v>1.001721678794016</v>
       </c>
     </row>
     <row r="120">
@@ -2351,13 +2351,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>6.145687087385813</v>
+        <v>-5.559321459139649</v>
       </c>
       <c r="C120" t="n">
-        <v>-2.318344634360803</v>
+        <v>-1.654593259280954</v>
       </c>
       <c r="D120" t="n">
-        <v>1.001190583277246</v>
+        <v>1.001750971756564</v>
       </c>
     </row>
     <row r="121">
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>5.357004033642845</v>
+        <v>-5.775254155564012</v>
       </c>
       <c r="C121" t="n">
-        <v>-3.762693040324231</v>
+        <v>-0.01878365220080901</v>
       </c>
       <c r="D121" t="n">
-        <v>1.001208444834877</v>
+        <v>1.001780779504002</v>
       </c>
     </row>
     <row r="122">
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>4.233031042775549</v>
+        <v>-5.519759725339851</v>
       </c>
       <c r="C122" t="n">
-        <v>-4.964671087747738</v>
+        <v>1.611315300662097</v>
       </c>
       <c r="D122" t="n">
-        <v>1.001226549933208</v>
+        <v>1.001811115742325</v>
       </c>
     </row>
     <row r="123">
@@ -2399,13 +2399,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2.844064274432675</v>
+        <v>-4.811814959765743</v>
       </c>
       <c r="C123" t="n">
-        <v>-5.847133407435141</v>
+        <v>3.101722697616476</v>
       </c>
       <c r="D123" t="n">
-        <v>1.001244903587266</v>
+        <v>1.001841994668871</v>
       </c>
     </row>
     <row r="124">
@@ -2415,13 +2415,13 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1.278055875649901</v>
+        <v>-3.708155530296555</v>
       </c>
       <c r="C124" t="n">
-        <v>-6.352590330077214</v>
+        <v>4.328277165931591</v>
       </c>
       <c r="D124" t="n">
-        <v>1.001263510950718</v>
+        <v>1.001873430994555</v>
       </c>
     </row>
     <row r="125">
@@ -2431,13 +2431,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.3647493435196662</v>
+        <v>-2.299367548833586</v>
       </c>
       <c r="C125" t="n">
-        <v>-6.447243508846698</v>
+        <v>5.187239576800405</v>
       </c>
       <c r="D125" t="n">
-        <v>1.001282377320702</v>
+        <v>1.001905439967317</v>
       </c>
     </row>
     <row r="126">
@@ -2447,13 +2447,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-1.978102826921198</v>
+        <v>-0.7029998468141291</v>
       </c>
       <c r="C126" t="n">
-        <v>-6.123582330528805</v>
+        <v>5.604504672332145</v>
       </c>
       <c r="D126" t="n">
-        <v>1.001301508142844</v>
+        <v>1.001938037396876</v>
       </c>
     </row>
     <row r="127">
@@ -2463,13 +2463,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-3.456584982508871</v>
+        <v>0.9458377442195951</v>
       </c>
       <c r="C127" t="n">
-        <v>-5.401326892936877</v>
+        <v>5.542580538149897</v>
       </c>
       <c r="D127" t="n">
-        <v>1.001320909016508</v>
+        <v>1.00197123968086</v>
       </c>
     </row>
     <row r="128">
@@ -2479,13 +2479,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-4.702549528962481</v>
+        <v>2.505685413667848</v>
       </c>
       <c r="C128" t="n">
-        <v>-4.326603824634008</v>
+        <v>5.004644437746877</v>
       </c>
       <c r="D128" t="n">
-        <v>1.001340585700253</v>
+        <v>1.002005063832406</v>
       </c>
     </row>
     <row r="129">
@@ -2495,13 +2495,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-5.632723279541976</v>
+        <v>3.840856355345249</v>
       </c>
       <c r="C129" t="n">
-        <v>-2.969353828271119</v>
+        <v>4.035202043119806</v>
       </c>
       <c r="D129" t="n">
-        <v>1.001360544117536</v>
+        <v>1.002039527509343</v>
       </c>
     </row>
     <row r="130">
@@ -2511,13 +2511,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-6.184010433424268</v>
+        <v>4.83344863200827</v>
       </c>
       <c r="C130" t="n">
-        <v>-1.419087674792383</v>
+        <v>2.717150233702262</v>
       </c>
       <c r="D130" t="n">
-        <v>1.001380790362649</v>
+        <v>1.00207464904504</v>
       </c>
     </row>
     <row r="131">
@@ -2527,13 +2527,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-6.318086235206498</v>
+        <v>5.394179822010527</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2207771709950788</v>
+        <v>1.165351106057646</v>
       </c>
       <c r="D131" t="n">
-        <v>1.001401330706931</v>
+        <v>1.002110447481047</v>
       </c>
     </row>
     <row r="132">
@@ -2543,13 +2543,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-6.024430393597686</v>
+        <v>5.471027777664809</v>
       </c>
       <c r="C132" t="n">
-        <v>1.839661988733459</v>
+        <v>-0.4828583441372489</v>
       </c>
       <c r="D132" t="n">
-        <v>1.001422171605241</v>
+        <v>1.002146942601654</v>
       </c>
     </row>
     <row r="133">
@@ -2559,13 +2559,13 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-5.321543065749683</v>
+        <v>5.054804887118156</v>
       </c>
       <c r="C133" t="n">
-        <v>3.327229924097503</v>
+        <v>-2.079498098554311</v>
       </c>
       <c r="D133" t="n">
-        <v>1.001443319702716</v>
+        <v>1.002184154970488</v>
       </c>
     </row>
     <row r="134">
@@ -2575,13 +2575,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-4.256200638389827</v>
+        <v>4.181025690268848</v>
       </c>
       <c r="C134" t="n">
-        <v>4.580960343479102</v>
+        <v>-3.479144452157048</v>
       </c>
       <c r="D134" t="n">
-        <v>1.001464781841843</v>
+        <v>1.002222105969298</v>
       </c>
     </row>
     <row r="135">
@@ -2591,13 +2591,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-2.900738270527145</v>
+        <v>2.92773368342989</v>
       </c>
       <c r="C135" t="n">
-        <v>5.513376570850798</v>
+        <v>-4.552344874069759</v>
       </c>
       <c r="D135" t="n">
-        <v>1.001486565069831</v>
+        <v>1.002260817839083</v>
       </c>
     </row>
     <row r="136">
@@ -2607,13 +2607,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-1.348483018740565</v>
+        <v>1.409309722128562</v>
       </c>
       <c r="C136" t="n">
-        <v>6.058412306023463</v>
+        <v>-5.198014041481342</v>
       </c>
       <c r="D136" t="n">
-        <v>1.001508676646331</v>
+        <v>1.002300313723732</v>
       </c>
     </row>
     <row r="137">
@@ -2623,13 +2623,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.2924038579134431</v>
+        <v>-0.2333380175616701</v>
       </c>
       <c r="C137" t="n">
-        <v>6.17644142822798</v>
+        <v>-5.353604540197065</v>
       </c>
       <c r="D137" t="n">
-        <v>1.0015311240515</v>
+        <v>1.002340617716339</v>
       </c>
     </row>
     <row r="138">
@@ -2639,13 +2639,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1.906293761807486</v>
+        <v>-1.845438162151037</v>
       </c>
       <c r="C138" t="n">
-        <v>5.857570798172445</v>
+        <v>-5.001989518028037</v>
       </c>
       <c r="D138" t="n">
-        <v>1.001553914994436</v>
+        <v>1.002381754908419</v>
       </c>
     </row>
     <row r="139">
@@ -2655,13 +2655,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>3.378183229566198</v>
+        <v>-3.272794571263613</v>
       </c>
       <c r="C139" t="n">
-        <v>5.122902759255885</v>
+        <v>-4.174249413064266</v>
       </c>
       <c r="D139" t="n">
-        <v>1.001577057422004</v>
+        <v>1.002423751442207</v>
       </c>
     </row>
     <row r="140">
@@ -2671,13 +2671,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>4.601956207992277</v>
+        <v>-4.376687075582917</v>
       </c>
       <c r="C140" t="n">
-        <v>4.023607454736073</v>
+        <v>-2.947904706667253</v>
       </c>
       <c r="D140" t="n">
-        <v>1.001600559528078</v>
+        <v>1.002466634566284</v>
       </c>
     </row>
     <row r="141">
@@ -2687,13 +2687,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>5.488224669783095</v>
+        <v>-5.047802619845021</v>
       </c>
       <c r="C141" t="n">
-        <v>2.637796688470759</v>
+        <v>-1.440554738593941</v>
       </c>
       <c r="D141" t="n">
-        <v>1.001624429763206</v>
+        <v>1.002510432694781</v>
       </c>
     </row>
     <row r="142">
@@ -2703,13 +2703,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>5.971161751178239</v>
+        <v>-5.217777974768024</v>
       </c>
       <c r="C142" t="n">
-        <v>1.065350869464559</v>
+        <v>0.2006668731090245</v>
       </c>
       <c r="D142" t="n">
-        <v>1.001648676844747</v>
+        <v>1.00255517547043</v>
       </c>
     </row>
     <row r="143">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>6.013790535661803</v>
+        <v>-4.867090479654277</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.5789926607252954</v>
+        <v>1.812969041058719</v>
       </c>
       <c r="D143" t="n">
-        <v>1.001673309767478</v>
+        <v>1.002600893831743</v>
       </c>
     </row>
     <row r="144">
@@ -2735,13 +2735,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>5.611282768783945</v>
+        <v>-4.028326593636291</v>
       </c>
       <c r="C144" t="n">
-        <v>-2.173839692981378</v>
+        <v>3.233875492420294</v>
       </c>
       <c r="D144" t="n">
-        <v>1.001698337814722</v>
+        <v>1.00264762008467</v>
       </c>
     </row>
     <row r="145">
@@ -2751,13 +2751,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>4.791950870267152</v>
+        <v>-2.784270721461755</v>
       </c>
       <c r="C145" t="n">
-        <v>-3.600061754570452</v>
+        <v>4.317768931328398</v>
       </c>
       <c r="D145" t="n">
-        <v>1.001723770570012</v>
+        <v>1.002695387979056</v>
       </c>
     </row>
     <row r="146">
@@ -2767,13 +2767,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>3.615776170271855</v>
+        <v>-1.260756176572752</v>
       </c>
       <c r="C146" t="n">
-        <v>-4.7497963294907</v>
+        <v>4.951333001893972</v>
       </c>
       <c r="D146" t="n">
-        <v>1.001749617929321</v>
+        <v>1.00274423279029</v>
       </c>
     </row>
     <row r="147">
@@ -2783,13 +2783,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2.170496079035614</v>
+        <v>0.3852385047148016</v>
       </c>
       <c r="C147" t="n">
-        <v>-5.534845455211586</v>
+        <v>5.066230822470067</v>
       </c>
       <c r="D147" t="n">
-        <v>1.001775890113904</v>
+        <v>1.002794191406568</v>
       </c>
     </row>
     <row r="148">
@@ -2799,13 +2799,13 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.5654603947788259</v>
+        <v>1.981234804047681</v>
       </c>
       <c r="C148" t="n">
-        <v>-5.893809226378914</v>
+        <v>4.64754739490729</v>
       </c>
       <c r="D148" t="n">
-        <v>1.001802597683771</v>
+        <v>1.00284530242222</v>
       </c>
     </row>
     <row r="149">
@@ -2815,13 +2815,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-1.07635180577663</v>
+        <v>3.357166858000951</v>
       </c>
       <c r="C149" t="n">
-        <v>-5.797358443124247</v>
+        <v>3.736882262762712</v>
       </c>
       <c r="D149" t="n">
-        <v>1.001829751551836</v>
+        <v>1.002897606237591</v>
       </c>
     </row>
     <row r="150">
@@ -2831,13 +2831,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-2.627602726851984</v>
+        <v>4.363750602079388</v>
       </c>
       <c r="C150" t="n">
-        <v>-5.251168229538326</v>
+        <v>2.429484402064949</v>
       </c>
       <c r="D150" t="n">
-        <v>1.001857362998787</v>
+        <v>1.002951145166033</v>
       </c>
     </row>
     <row r="151">
@@ -2847,13 +2847,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-3.966475946015884</v>
+        <v>4.889333588323931</v>
       </c>
       <c r="C151" t="n">
-        <v>-4.296195810338147</v>
+        <v>0.8654311662157623</v>
       </c>
       <c r="D151" t="n">
-        <v>1.001885443688709</v>
+        <v>1.003005963548603</v>
       </c>
     </row>
     <row r="152">
@@ -2863,13 +2863,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-4.986408858458232</v>
+        <v>4.873289743463093</v>
       </c>
       <c r="C152" t="n">
-        <v>-3.006180774132324</v>
+        <v>-0.784490830438056</v>
       </c>
       <c r="D152" t="n">
-        <v>1.00191400568551</v>
+        <v>1.003062107877115</v>
       </c>
     </row>
     <row r="153">
@@ -2879,13 +2879,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-5.604896976109424</v>
+        <v>4.314282241258431</v>
       </c>
       <c r="C153" t="n">
-        <v>-1.48246166732933</v>
+        <v>-2.336911718109598</v>
       </c>
       <c r="D153" t="n">
-        <v>1.001943061470198</v>
+        <v>1.003119626926268</v>
       </c>
     </row>
     <row r="154">
@@ -2895,13 +2895,13 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-5.770627656030149</v>
+        <v>3.272185865307326</v>
       </c>
       <c r="C154" t="n">
-        <v>0.1535773539012361</v>
+        <v>-3.616183051029082</v>
       </c>
       <c r="D154" t="n">
-        <v>1.001972623959072</v>
+        <v>1.003178571895658</v>
       </c>
     </row>
     <row r="155">
@@ -2911,13 +2911,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-5.468301155026181</v>
+        <v>1.863103354423034</v>
       </c>
       <c r="C155" t="n">
-        <v>1.769909363257331</v>
+        <v>-4.474662216483903</v>
       </c>
       <c r="D155" t="n">
-        <v>1.002002706522855</v>
+        <v>1.003238996562515</v>
       </c>
     </row>
     <row r="156">
@@ -2927,13 +2927,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-4.720655322584087</v>
+        <v>0.2476700639501338</v>
       </c>
       <c r="C156" t="n">
-        <v>3.23442072439856</v>
+        <v>-4.810631387736082</v>
       </c>
       <c r="D156" t="n">
-        <v>1.002033323006863</v>
+        <v>1.003300957446154</v>
       </c>
     </row>
     <row r="157">
@@ -2943,13 +2943,13 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-3.587417497630292</v>
+        <v>-1.386360158664328</v>
       </c>
       <c r="C157" t="n">
-        <v>4.425795692710618</v>
+        <v>-4.581622148659196</v>
       </c>
       <c r="D157" t="n">
-        <v>1.002064487752246</v>
+        <v>1.003364513985188</v>
       </c>
     </row>
     <row r="158">
@@ -2959,13 +2959,13 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-2.161149259260778</v>
+        <v>-2.845508645382508</v>
       </c>
       <c r="C158" t="n">
-        <v>5.243837689832514</v>
+        <v>-3.81130682769771</v>
       </c>
       <c r="D158" t="n">
-        <v>1.002096215618389</v>
+        <v>1.003429728728675</v>
       </c>
     </row>
     <row r="159">
@@ -2975,13 +2975,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-0.560208611585012</v>
+        <v>-3.953606325427587</v>
       </c>
       <c r="C159" t="n">
-        <v>5.618339121182659</v>
+        <v>-2.588760496682537</v>
       </c>
       <c r="D159" t="n">
-        <v>1.002128522006525</v>
+        <v>1.003496667542493</v>
       </c>
     </row>
     <row r="160">
@@ -2991,13 +2991,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1.080690823133642</v>
+        <v>-4.573764415197028</v>
       </c>
       <c r="C160" t="n">
-        <v>5.51569072368246</v>
+        <v>-1.059739913533476</v>
       </c>
       <c r="D160" t="n">
-        <v>1.002161422884671</v>
+        <v>1.00356539983239</v>
       </c>
     </row>
     <row r="161">
@@ -3007,13 +3007,13 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2.621615012985501</v>
+        <v>-4.626513134930116</v>
       </c>
       <c r="C161" t="n">
-        <v>4.942574279039659</v>
+        <v>0.5894167110982084</v>
       </c>
       <c r="D161" t="n">
-        <v>1.002194934813932</v>
+        <v>1.003635998785295</v>
       </c>
     </row>
     <row r="162">
@@ -3023,13 +3023,13 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>3.929349011624366</v>
+        <v>-4.1016163601082</v>
       </c>
       <c r="C162" t="n">
-        <v>3.946300978983663</v>
+        <v>2.153700373284042</v>
       </c>
       <c r="D162" t="n">
-        <v>1.002229074976301</v>
+        <v>1.003708541630649</v>
       </c>
     </row>
     <row r="163">
@@ -3039,13 +3039,13 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>4.889135657363739</v>
+        <v>-3.061685579075788</v>
       </c>
       <c r="C163" t="n">
-        <v>2.611627312568626</v>
+        <v>3.434732757988375</v>
       </c>
       <c r="D163" t="n">
-        <v>1.00226386120403</v>
+        <v>1.003783109923749</v>
       </c>
     </row>
     <row r="164">
@@ -3055,13 +3055,13 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>5.415174711981304</v>
+        <v>-1.636627121803695</v>
       </c>
       <c r="C164" t="n">
-        <v>1.054180960303151</v>
+        <v>4.266422840505482</v>
       </c>
       <c r="D164" t="n">
-        <v>1.002299312010679</v>
+        <v>1.003859789853283</v>
       </c>
     </row>
     <row r="165">
@@ -3071,13 +3071,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>5.458899981419094</v>
+        <v>-0.009074616378267135</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.5890636287022589</v>
+        <v>4.537665982508012</v>
       </c>
       <c r="D165" t="n">
-        <v>1.002335446623975</v>
+        <v>1.003938672575491</v>
       </c>
     </row>
     <row r="166">
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>5.014199606851355</v>
+        <v>1.607841507266913</v>
       </c>
       <c r="C166" t="n">
-        <v>-2.171533542799047</v>
+        <v>4.208907333806176</v>
       </c>
       <c r="D166" t="n">
-        <v>1.002372285020578</v>
+        <v>1.004019854577722</v>
       </c>
     </row>
     <row r="167">
@@ -3103,13 +3103,13 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>4.118976914285994</v>
+        <v>2.997905566836884</v>
       </c>
       <c r="C167" t="n">
-        <v>-3.550064199689581</v>
+        <v>3.319963066547617</v>
       </c>
       <c r="D167" t="n">
-        <v>1.002409847962904</v>
+        <v>1.004103438074405</v>
       </c>
     </row>
     <row r="168">
@@ -3119,13 +3119,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2.852750911101457</v>
+        <v>3.971027835258381</v>
       </c>
       <c r="C168" t="n">
-        <v>-4.598033303979975</v>
+        <v>1.987471771753481</v>
       </c>
       <c r="D168" t="n">
-        <v>1.002448157038141</v>
+        <v>1.004189531438895</v>
       </c>
     </row>
     <row r="169">
@@ -3135,13 +3135,13 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1.330344019894065</v>
+        <v>4.39035419801859</v>
       </c>
       <c r="C169" t="n">
-        <v>-5.217418381700651</v>
+        <v>0.3916442743421014</v>
       </c>
       <c r="D169" t="n">
-        <v>1.002487234699614</v>
+        <v>1.004278249675026</v>
       </c>
     </row>
     <row r="170">
@@ -3151,13 +3151,13 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-0.3079290055260581</v>
+        <v>4.19334784236261</v>
       </c>
       <c r="C170" t="n">
-        <v>-5.348609318728164</v>
+        <v>-1.246552446394192</v>
       </c>
       <c r="D170" t="n">
-        <v>1.002527104310664</v>
+        <v>1.004369714932718</v>
       </c>
     </row>
     <row r="171">
@@ -3167,13 +3167,13 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-1.908805901707436</v>
+        <v>3.403445507689292</v>
       </c>
       <c r="C171" t="n">
-        <v>-4.976954336756274</v>
+        <v>-2.695191221823616</v>
       </c>
       <c r="D171" t="n">
-        <v>1.002567790191218</v>
+        <v>1.004464057072503</v>
       </c>
     </row>
     <row r="172">
@@ -3183,13 +3183,13 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-3.32028890810409</v>
+        <v>2.129961480910679</v>
       </c>
       <c r="C172" t="n">
-        <v>-4.135271324445471</v>
+        <v>-3.744352045310552</v>
       </c>
       <c r="D172" t="n">
-        <v>1.00260931766726</v>
+        <v>1.004561414284486</v>
       </c>
     </row>
     <row r="173">
@@ -3199,13 +3199,13 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-4.406238287506094</v>
+        <v>0.5554315995652979</v>
       </c>
       <c r="C173" t="n">
-        <v>-2.901900211455234</v>
+        <v>-4.237662954120119</v>
       </c>
       <c r="D173" t="n">
-        <v>1.002651713123385</v>
+        <v>1.004661933767975</v>
       </c>
     </row>
     <row r="174">
@@ -3215,13 +3215,13 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-5.059952400042698</v>
+        <v>-1.088615381548471</v>
       </c>
       <c r="C174" t="n">
-        <v>-1.394279788522554</v>
+        <v>-4.097628944355471</v>
       </c>
       <c r="D174" t="n">
-        <v>1.002695004058703</v>
+        <v>1.004765772478827</v>
       </c>
     </row>
     <row r="175">
@@ -3231,13 +3231,13 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-5.215359183494295</v>
+        <v>-2.55463820558102</v>
       </c>
       <c r="C175" t="n">
-        <v>0.2415308747304189</v>
+        <v>-3.340478312436242</v>
       </c>
       <c r="D175" t="n">
-        <v>1.002739219146308</v>
+        <v>1.004873097952539</v>
       </c>
     </row>
     <row r="176">
@@ -3247,13 +3247,13 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-4.854600942470737</v>
+        <v>-3.616399038882633</v>
       </c>
       <c r="C176" t="n">
-        <v>1.844541366474937</v>
+        <v>-2.077480318428844</v>
       </c>
       <c r="D176" t="n">
-        <v>1.002784388296605</v>
+        <v>1.004984089212185</v>
       </c>
     </row>
     <row r="177">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-4.01108383242472</v>
+        <v>-4.105119696811216</v>
       </c>
       <c r="C177" t="n">
-        <v>3.254514507389017</v>
+        <v>-0.5015196214208211</v>
       </c>
       <c r="D177" t="n">
-        <v>1.002830542724773</v>
+        <v>1.00509893777161</v>
       </c>
     </row>
     <row r="178">
@@ -3279,13 +3279,13 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-2.767466727042354</v>
+        <v>-3.938656979975234</v>
       </c>
       <c r="C178" t="n">
-        <v>4.328159144415651</v>
+        <v>1.140061982978969</v>
       </c>
       <c r="D178" t="n">
-        <v>1.002877715022698</v>
+        <v>1.005217848745743</v>
       </c>
     </row>
     <row r="179">
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-1.248549342447984</v>
+        <v>-3.138452484455864</v>
       </c>
       <c r="C179" t="n">
-        <v>4.95420368354148</v>
+        <v>2.583035567404871</v>
       </c>
       <c r="D179" t="n">
-        <v>1.002925939235714</v>
+        <v>1.005341042081651</v>
       </c>
     </row>
     <row r="180">
@@ -3311,13 +3311,13 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.3904567878225439</v>
+        <v>-1.830515033093382</v>
       </c>
       <c r="C180" t="n">
-        <v>5.065740765001407</v>
+        <v>3.588918077106627</v>
       </c>
       <c r="D180" t="n">
-        <v>1.002975250944536</v>
+        <v>1.005468753925926</v>
       </c>
     </row>
     <row r="181">
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1.979280069160739</v>
+        <v>-0.2289954575619842</v>
       </c>
       <c r="C181" t="n">
-        <v>4.648420515775183</v>
+        <v>3.985950883295848</v>
       </c>
       <c r="D181" t="n">
-        <v>1.003025687352796</v>
+        <v>1.005601238146395</v>
       </c>
     </row>
     <row r="182">
@@ -3343,13 +3343,13 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>3.350125938967576</v>
+        <v>1.39626906629671</v>
       </c>
       <c r="C182" t="n">
-        <v>3.743420421141363</v>
+        <v>3.701319143169218</v>
       </c>
       <c r="D182" t="n">
-        <v>1.00307728738064</v>
+        <v>1.005738768028872</v>
       </c>
     </row>
     <row r="183">
@@ -3359,13 +3359,13 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>4.355639758236794</v>
+        <v>2.763947220401747</v>
       </c>
       <c r="C183" t="n">
-        <v>2.444610485787488</v>
+        <v>2.778304264207053</v>
       </c>
       <c r="D183" t="n">
-        <v>1.003130091764879</v>
+        <v>1.005881638172936</v>
       </c>
     </row>
     <row r="184">
@@ -3375,13 +3375,13 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>4.885379743984368</v>
+        <v>3.630333211230433</v>
       </c>
       <c r="C184" t="n">
-        <v>0.8899220615230138</v>
+        <v>1.374069485084113</v>
       </c>
       <c r="D184" t="n">
-        <v>1.003184143166229</v>
+        <v>1.00603016661454</v>
       </c>
     </row>
     <row r="185">
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>4.878925299643748</v>
+        <v>3.834981365444547</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.7524382713816602</v>
+        <v>-0.2631901562008984</v>
       </c>
       <c r="D185" t="n">
-        <v>1.003239486284245</v>
+        <v>1.006184697207807</v>
       </c>
     </row>
     <row r="186">
@@ -3407,13 +3407,13 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>4.333997291440138</v>
+        <v>3.334179073346999</v>
       </c>
       <c r="C186" t="n">
-        <v>-2.301678161852138</v>
+        <v>-1.835353336101716</v>
       </c>
       <c r="D186" t="n">
-        <v>1.003296167980586</v>
+        <v>1.006345602303752</v>
       </c>
     </row>
     <row r="187">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>3.308418639498418</v>
+        <v>2.214906531694286</v>
       </c>
       <c r="C187" t="n">
-        <v>-3.584243433551642</v>
+        <v>-3.047677128457235</v>
       </c>
       <c r="D187" t="n">
-        <v>1.003354237411341</v>
+        <v>1.006513285770075</v>
       </c>
     </row>
     <row r="188">
@@ -3439,13 +3439,13 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1.915362954549527</v>
+        <v>0.6848353633730294</v>
       </c>
       <c r="C188" t="n">
-        <v>-4.453650211240296</v>
+        <v>-3.665238639459973</v>
       </c>
       <c r="D188" t="n">
-        <v>1.003413746169188</v>
+        <v>1.006688186403872</v>
       </c>
     </row>
     <row r="189">
@@ -3455,13 +3455,13 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.3120701904477994</v>
+        <v>-0.9619195288793896</v>
       </c>
       <c r="C189" t="n">
-        <v>-4.808056654507416</v>
+        <v>-3.561805932627212</v>
       </c>
       <c r="D189" t="n">
-        <v>1.003474748436254</v>
+        <v>1.006870781798298</v>
       </c>
     </row>
     <row r="190">
@@ -3471,13 +3471,13 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-1.31702302149576</v>
+        <v>-2.398787712454305</v>
       </c>
       <c r="C190" t="n">
-        <v>-4.603414894988194</v>
+        <v>-2.750689527275825</v>
       </c>
       <c r="D190" t="n">
-        <v>1.003537301148634</v>
+        <v>1.007061592735347</v>
       </c>
     </row>
     <row r="191">
@@ -3487,13 +3487,13 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-2.781071198988573</v>
+        <v>-3.331412195063204</v>
       </c>
       <c r="C191" t="n">
-        <v>-3.860414960391527</v>
+        <v>-1.389546046801223</v>
       </c>
       <c r="D191" t="n">
-        <v>1.003601464173608</v>
+        <v>1.007261188190289</v>
       </c>
     </row>
     <row r="192">
@@ -3503,13 +3503,13 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-3.905278622451165</v>
+        <v>-3.560617822976164</v>
       </c>
       <c r="C192" t="n">
-        <v>-2.664046270333857</v>
+        <v>0.2444566398957916</v>
       </c>
       <c r="D192" t="n">
-        <v>1.003667300500725</v>
+        <v>1.007470191049681</v>
       </c>
     </row>
     <row r="193">
@@ -3519,13 +3519,13 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-4.552423481270084</v>
+        <v>-3.030117022420259</v>
       </c>
       <c r="C193" t="n">
-        <v>-1.155408025561033</v>
+        <v>1.80684868436144</v>
       </c>
       <c r="D193" t="n">
-        <v>1.003734876448031</v>
+        <v>1.007689284664684</v>
       </c>
     </row>
     <row r="194">
@@ -3535,13 +3535,13 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-4.640771824044043</v>
+        <v>-1.846983273886051</v>
       </c>
       <c r="C194" t="n">
-        <v>0.483682128015997</v>
+        <v>2.956933260851105</v>
       </c>
       <c r="D194" t="n">
-        <v>1.003804261884861</v>
+        <v>1.007919220385846</v>
       </c>
     </row>
     <row r="195">
@@ -3551,13 +3551,13 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-4.1559593389653</v>
+        <v>-0.2674272334822137</v>
       </c>
       <c r="C195" t="n">
-        <v>2.051803703138077</v>
+        <v>3.433905707878987</v>
       </c>
       <c r="D195" t="n">
-        <v>1.003875530472768</v>
+        <v>1.008160826255509</v>
       </c>
     </row>
     <row r="196">
@@ -3567,13 +3567,13 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-3.154997388990598</v>
+        <v>1.352669313877325</v>
       </c>
       <c r="C196" t="n">
-        <v>3.352472754651077</v>
+        <v>3.121196294471462</v>
       </c>
       <c r="D196" t="n">
-        <v>1.003948759926335</v>
+        <v>1.008415017071115</v>
       </c>
     </row>
     <row r="197">
@@ -3583,13 +3583,13 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-1.761422087748957</v>
+        <v>2.63483704035052</v>
       </c>
       <c r="C197" t="n">
-        <v>4.219201425293685</v>
+        <v>2.082665639560129</v>
       </c>
       <c r="D197" t="n">
-        <v>1.004024032295815</v>
+        <v>1.008682806078907</v>
       </c>
     </row>
     <row r="198">
@@ -3599,13 +3599,13 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-0.1516696692658325</v>
+        <v>3.267397067114612</v>
       </c>
       <c r="C198" t="n">
-        <v>4.537890680056005</v>
+        <v>0.5587339440631776</v>
       </c>
       <c r="D198" t="n">
-        <v>1.004101434273754</v>
+        <v>1.008965318615301</v>
       </c>
     </row>
     <row r="199">
@@ -3615,13 +3615,13 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1.466089783520463</v>
+        <v>3.086571122021367</v>
       </c>
       <c r="C199" t="n">
-        <v>4.263475587523353</v>
+        <v>-1.081327633311632</v>
       </c>
       <c r="D199" t="n">
-        <v>1.004181057528006</v>
+        <v>1.009263808085855</v>
       </c>
     </row>
     <row r="200">
@@ -3631,13 +3631,13 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2.878337907701392</v>
+        <v>2.127804787510995</v>
       </c>
       <c r="C200" t="n">
-        <v>3.428265279571598</v>
+        <v>-2.424185449988278</v>
       </c>
       <c r="D200" t="n">
-        <v>1.004262999063838</v>
+        <v>1.009579674763841</v>
       </c>
     </row>
     <row r="201">
@@ -3647,13 +3647,13 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>3.894611075130771</v>
+        <v>0.630250081715529</v>
       </c>
       <c r="C201" t="n">
-        <v>2.140333129785198</v>
+        <v>-3.116883005310826</v>
       </c>
       <c r="D201" t="n">
-        <v>1.004347361618118</v>
+        <v>1.009914488007545</v>
       </c>
     </row>
     <row r="202">
@@ -3663,13 +3663,13 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>4.37419245438678</v>
+        <v>-1.012792099794411</v>
       </c>
       <c r="C202" t="n">
-        <v>0.5715347050297359</v>
+        <v>-2.965514614359889</v>
       </c>
       <c r="D202" t="n">
-        <v>1.004434254088969</v>
+        <v>1.010270012645847</v>
       </c>
     </row>
     <row r="203">
@@ -3679,13 +3679,13 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>4.247302283698165</v>
+        <v>-2.350950822120833</v>
       </c>
       <c r="C203" t="n">
-        <v>-1.063873073090399</v>
+        <v>-2.000200554656149</v>
       </c>
       <c r="D203" t="n">
-        <v>1.004523792004652</v>
+        <v>1.010648240475764</v>
       </c>
     </row>
     <row r="204">
@@ -3695,13 +3695,13 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>3.527457381955156</v>
+        <v>-3.000297791674956</v>
       </c>
       <c r="C204" t="n">
-        <v>-2.537644370304669</v>
+        <v>-0.4833457451470465</v>
       </c>
       <c r="D204" t="n">
-        <v>1.004616098035931</v>
+        <v>1.01105142806852</v>
       </c>
     </row>
     <row r="205">
@@ -3711,13 +3711,13 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>2.312650506213453</v>
+        <v>-2.760851123051671</v>
       </c>
       <c r="C205" t="n">
-        <v>-3.639427838362255</v>
+        <v>1.149187652025956</v>
       </c>
       <c r="D205" t="n">
-        <v>1.004711302556702</v>
+        <v>1.011482142412481</v>
       </c>
     </row>
     <row r="206">
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.7744153813143546</v>
+        <v>-1.691693541949622</v>
       </c>
       <c r="C206" t="n">
-        <v>-4.207762103379869</v>
+        <v>2.405930293449404</v>
       </c>
       <c r="D206" t="n">
-        <v>1.00480954425826</v>
+        <v>1.011943316360523</v>
       </c>
     </row>
     <row r="207">
@@ -3743,13 +3743,13 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-0.8644625870768204</v>
+        <v>-0.1139012386964526</v>
       </c>
       <c r="C207" t="n">
-        <v>-4.155584223347432</v>
+        <v>2.888705031598606</v>
       </c>
       <c r="D207" t="n">
-        <v>1.0049109708233</v>
+        <v>1.01243831643621</v>
       </c>
     </row>
     <row r="208">
@@ -3759,13 +3759,13 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-2.361075844843485</v>
+        <v>1.470843225456081</v>
       </c>
       <c r="C208" t="n">
-        <v>-3.486071189926522</v>
+        <v>2.429265173360478</v>
       </c>
       <c r="D208" t="n">
-        <v>1.005015739666538</v>
+        <v>1.01297102634488</v>
       </c>
     </row>
     <row r="209">
@@ -3775,13 +3775,13 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-3.488294348761444</v>
+        <v>2.532235433847163</v>
       </c>
       <c r="C209" t="n">
-        <v>-2.295728800146786</v>
+        <v>1.165957380316084</v>
       </c>
       <c r="D209" t="n">
-        <v>1.005124018749763</v>
+        <v>1.013545950615263</v>
       </c>
     </row>
     <row r="210">
@@ -3791,13 +3791,13 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>-4.070270254931569</v>
+        <v>2.692898221440732</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.7633256125687334</v>
+        <v>-0.4762020116683422</v>
       </c>
       <c r="D210" t="n">
-        <v>1.005235987480188</v>
+        <v>1.014168344285953</v>
       </c>
     </row>
     <row r="211">
@@ -3807,13 +3807,13 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>-4.01197658927847</v>
+        <v>1.879105416505168</v>
       </c>
       <c r="C211" t="n">
-        <v>0.8746477140921227</v>
+        <v>-1.911556069256606</v>
       </c>
       <c r="D211" t="n">
-        <v>1.005351837702217</v>
+        <v>1.014844376629241</v>
       </c>
     </row>
     <row r="212">
@@ -3823,13 +3823,13 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>-3.317643016499857</v>
+        <v>0.3785503297505836</v>
       </c>
       <c r="C212" t="n">
-        <v>2.35911202640139</v>
+        <v>-2.597729831225782</v>
       </c>
       <c r="D212" t="n">
-        <v>1.005471774794151</v>
+        <v>1.015581339844316</v>
       </c>
     </row>
     <row r="213">
@@ -3839,13 +3839,13 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-2.094263436952081</v>
+        <v>-1.234882263717657</v>
       </c>
       <c r="C213" t="n">
-        <v>3.449264634555121</v>
+        <v>-2.252280462527038</v>
       </c>
       <c r="D213" t="n">
-        <v>1.00559601888302</v>
+        <v>1.016387917869574</v>
       </c>
     </row>
     <row r="214">
@@ -3855,13 +3855,13 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>-0.5384378951440094</v>
+        <v>-2.30466965235877</v>
       </c>
       <c r="C214" t="n">
-        <v>3.962909641271758</v>
+        <v>-0.996073893883001</v>
       </c>
       <c r="D214" t="n">
-        <v>1.005724806192659</v>
+        <v>1.017274536610131</v>
       </c>
     </row>
     <row r="215">
@@ -3871,13 +3871,13 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1.092571114146261</v>
+        <v>-2.362856333458982</v>
       </c>
       <c r="C215" t="n">
-        <v>3.809469796474874</v>
+        <v>0.6528998203230605</v>
       </c>
       <c r="D215" t="n">
-        <v>1.005858390542395</v>
+        <v>1.018253825986954</v>
       </c>
     </row>
     <row r="216">
@@ -3887,13 +3887,13 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>2.521914536401366</v>
+        <v>-1.361954798650673</v>
       </c>
       <c r="C216" t="n">
-        <v>3.009472331437811</v>
+        <v>1.964652890690486</v>
       </c>
       <c r="D216" t="n">
-        <v>1.005997045016349</v>
+        <v>1.019341237971004</v>
       </c>
     </row>
     <row r="217">
@@ -3903,13 +3903,13 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>3.500241759591883</v>
+        <v>0.2505204322226621</v>
       </c>
       <c r="C217" t="n">
-        <v>1.69602195853068</v>
+        <v>2.314543773423937</v>
       </c>
       <c r="D217" t="n">
-        <v>1.006141063826441</v>
+        <v>1.020555885969643</v>
       </c>
     </row>
     <row r="218">
@@ -3919,13 +3919,13 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>3.850984171045924</v>
+        <v>1.689340553269095</v>
       </c>
       <c r="C218" t="n">
-        <v>0.09649552465625925</v>
+        <v>1.506894926912079</v>
       </c>
       <c r="D218" t="n">
-        <v>1.006290764395854</v>
+        <v>1.021921704365014</v>
       </c>
     </row>
     <row r="219">
@@ -3935,13 +3935,13 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>3.505536556783149</v>
+        <v>2.19657273204579</v>
       </c>
       <c r="C219" t="n">
-        <v>-1.503932506478081</v>
+        <v>-0.06320555293418306</v>
       </c>
       <c r="D219" t="n">
-        <v>1.006446489693992</v>
+        <v>1.02346908106776</v>
       </c>
     </row>
     <row r="220">
@@ -3951,13 +3951,13 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>2.521006589421575</v>
+        <v>1.466864729048517</v>
       </c>
       <c r="C220" t="n">
-        <v>-2.811820741585706</v>
+        <v>-1.543079274020465</v>
       </c>
       <c r="D220" t="n">
-        <v>1.006608610859079</v>
+        <v>1.025237205892287</v>
       </c>
     </row>
     <row r="221">
@@ -3967,13 +3967,13 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1.07566942012635</v>
+        <v>-0.1014919495111185</v>
       </c>
       <c r="C221" t="n">
-        <v>-3.579938204414814</v>
+        <v>-2.055677878015258</v>
       </c>
       <c r="D221" t="n">
-        <v>1.006777530150611</v>
+        <v>1.027277532069141</v>
       </c>
     </row>
     <row r="222">
@@ -3983,13 +3983,13 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>-0.5590179525477534</v>
+        <v>-1.541463647896992</v>
       </c>
       <c r="C222" t="n">
-        <v>-3.656738294653999</v>
+        <v>-1.250083992830097</v>
       </c>
       <c r="D222" t="n">
-        <v>1.006953684281076</v>
+        <v>1.029659023520265</v>
       </c>
     </row>
     <row r="223">
@@ -3999,13 +3999,13 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-2.066550813781965</v>
+        <v>-1.872589035421248</v>
       </c>
       <c r="C223" t="n">
-        <v>-3.020731574409796</v>
+        <v>0.3663491105604879</v>
       </c>
       <c r="D223" t="n">
-        <v>1.007137548185056</v>
+        <v>1.032476372182217</v>
       </c>
     </row>
     <row r="224">
@@ -4015,13 +4015,13 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-3.145980720406645</v>
+        <v>-0.8176438778925604</v>
       </c>
       <c r="C224" t="n">
-        <v>-1.791500511058386</v>
+        <v>1.635045573315379</v>
       </c>
       <c r="D224" t="n">
-        <v>1.00732963929417</v>
+        <v>1.035863368426328</v>
       </c>
     </row>
     <row r="225">
@@ -4031,13 +4031,13 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-3.572940940797014</v>
+        <v>0.8292814302501034</v>
       </c>
       <c r="C225" t="n">
-        <v>0.06205619475313942</v>
+        <v>1.534362757506593</v>
       </c>
       <c r="D225" t="n">
-        <v>1.007652370180678</v>
+        <v>1.04001567380048</v>
       </c>
     </row>
   </sheetData>
@@ -4078,7 +4078,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>53.804</v>
       </c>
     </row>
   </sheetData>

--- a/result2.xlsx
+++ b/result2.xlsx
@@ -463,10 +463,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.244080100393901</v>
+        <v>1.508548883383217</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2369546531981526</v>
+        <v>1.7015845927111</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -479,13 +479,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.637139448472002</v>
+        <v>-1.32347832741107</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.031811187091201</v>
+        <v>1.302558431512709</v>
       </c>
       <c r="D3" t="n">
-        <v>1.000038200894352</v>
+        <v>0.9912879619516926</v>
       </c>
     </row>
     <row r="4">
@@ -495,13 +495,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.861764174037878</v>
+        <v>0.2633314855302967</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.488277178385285</v>
+        <v>1.754813467474698</v>
       </c>
       <c r="D4" t="n">
-        <v>1.000045487752171</v>
+        <v>0.9902285668323939</v>
       </c>
     </row>
     <row r="5">
@@ -511,13 +511,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.810466697197899</v>
+        <v>1.534349191778286</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.759997908416087</v>
+        <v>0.702666143948139</v>
       </c>
       <c r="D5" t="n">
-        <v>1.000052837953779</v>
+        <v>0.989274599232019</v>
       </c>
     </row>
     <row r="6">
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.525373463217642</v>
+        <v>1.296393978472855</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.794906300486617</v>
+        <v>-0.9300853118652581</v>
       </c>
       <c r="D6" t="n">
-        <v>1.000060252329205</v>
+        <v>0.9884109799171346</v>
       </c>
     </row>
     <row r="7">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.058424788879894</v>
+        <v>-0.2613235167929746</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.55026157243409</v>
+        <v>-1.474159024652042</v>
       </c>
       <c r="D7" t="n">
-        <v>1.000067731723048</v>
+        <v>0.9876253858053643</v>
       </c>
     </row>
     <row r="8">
@@ -559,13 +559,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.469352693432799</v>
+        <v>-1.368116092742147</v>
       </c>
       <c r="C8" t="n">
-        <v>-7.994502357900127</v>
+        <v>-0.2504310345236004</v>
       </c>
       <c r="D8" t="n">
-        <v>1.000075276994804</v>
+        <v>0.9869076459059835</v>
       </c>
     </row>
     <row r="9">
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1766929364418902</v>
+        <v>-0.2848312392328708</v>
       </c>
       <c r="C9" t="n">
-        <v>-8.108667958544745</v>
+        <v>-0.04262398183847697</v>
       </c>
       <c r="D9" t="n">
-        <v>1.000082889019186</v>
+        <v>0.9862492898293326</v>
       </c>
     </row>
     <row r="10">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.811778644702354</v>
+        <v>-5.70680191861698</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.887320433953938</v>
+        <v>0.8013371364356137</v>
       </c>
       <c r="D10" t="n">
-        <v>1.000090568686474</v>
+        <v>0.9856432056386706</v>
       </c>
     </row>
     <row r="11">
@@ -607,13 +607,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.367977935597277</v>
+        <v>-5.221438384441366</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.338919333464553</v>
+        <v>2.378334993026677</v>
       </c>
       <c r="D11" t="n">
-        <v>1.000098316902853</v>
+        <v>0.9850833772922577</v>
       </c>
     </row>
     <row r="12">
@@ -623,13 +623,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4.780204747532477</v>
+        <v>-4.307300187065609</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.485622531846621</v>
+        <v>3.751962073459585</v>
       </c>
       <c r="D12" t="n">
-        <v>1.000106134590776</v>
+        <v>0.9845646808434987</v>
       </c>
     </row>
     <row r="13">
@@ -639,13 +639,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.988972012536776</v>
+        <v>-3.038645334750016</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.36251002677241</v>
+        <v>4.806957270460979</v>
       </c>
       <c r="D13" t="n">
-        <v>1.000114022689328</v>
+        <v>0.9840827245832147</v>
       </c>
     </row>
     <row r="14">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.942957698826089</v>
+        <v>-1.520505128273391</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.016251763898922</v>
+        <v>5.453293338988217</v>
       </c>
       <c r="D14" t="n">
-        <v>1.000121982154603</v>
+        <v>0.9836337224353542</v>
       </c>
     </row>
     <row r="15">
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7.601265969175446</v>
+        <v>0.1195281685698197</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.503264579158239</v>
+        <v>5.63437559997926</v>
       </c>
       <c r="D15" t="n">
-        <v>1.000130013960094</v>
+        <v>0.9832143927932097</v>
       </c>
     </row>
     <row r="16">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-7.935281248233425</v>
+        <v>1.741704598553882</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.8874261610743334</v>
+        <v>5.332641230037492</v>
       </c>
       <c r="D16" t="n">
-        <v>1.000138119097086</v>
+        <v>0.9828218770158303</v>
       </c>
     </row>
     <row r="17">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-7.930027811481825</v>
+        <v>3.205903007190449</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7625654756930091</v>
+        <v>4.571968488218717</v>
       </c>
       <c r="D17" t="n">
-        <v>1.000146298575066</v>
+        <v>0.9824536732600723</v>
       </c>
     </row>
     <row r="18">
@@ -719,13 +719,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-7.584966511245555</v>
+        <v>4.383831398706848</v>
       </c>
       <c r="C18" t="n">
-        <v>2.376081109047512</v>
+        <v>3.416553106436217</v>
       </c>
       <c r="D18" t="n">
-        <v>1.000154553422145</v>
+        <v>0.9821075823791584</v>
       </c>
     </row>
     <row r="19">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-6.914182766399527</v>
+        <v>5.170585561047883</v>
       </c>
       <c r="C19" t="n">
-        <v>3.883578760010918</v>
+        <v>1.966202153032499</v>
       </c>
       <c r="D19" t="n">
-        <v>1.00016288468549</v>
+        <v>0.9817816633925207</v>
       </c>
     </row>
     <row r="20">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-5.94594510955237</v>
+        <v>5.494512568852178</v>
       </c>
       <c r="C20" t="n">
-        <v>5.219623609509652</v>
+        <v>0.348311151260439</v>
       </c>
       <c r="D20" t="n">
-        <v>1.000171293431761</v>
+        <v>0.9814741966051992</v>
       </c>
     </row>
     <row r="21">
@@ -767,13 +767,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-4.721640406979502</v>
+        <v>5.324422519275777</v>
       </c>
       <c r="C21" t="n">
-        <v>6.325778207776106</v>
+        <v>-1.292898577883018</v>
       </c>
       <c r="D21" t="n">
-        <v>1.000179780747577</v>
+        <v>0.9811836528842697</v>
       </c>
     </row>
     <row r="22">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-3.294119229322968</v>
+        <v>4.673381215763771</v>
       </c>
       <c r="C22" t="n">
-        <v>7.153234120408064</v>
+        <v>-2.809026943530653</v>
       </c>
       <c r="D22" t="n">
-        <v>1.000188347739977</v>
+        <v>0.9809086679239488</v>
       </c>
     </row>
     <row r="23">
@@ -799,13 +799,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.725511574026288</v>
+        <v>3.598587936142278</v>
       </c>
       <c r="C23" t="n">
-        <v>7.665064193529492</v>
+        <v>-4.060953221743732</v>
       </c>
       <c r="D23" t="n">
-        <v>1.000196995536906</v>
+        <v>0.9806480205780017</v>
       </c>
     </row>
     <row r="24">
@@ -815,13 +815,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.08459802390613771</v>
+        <v>2.197176898984116</v>
       </c>
       <c r="C24" t="n">
-        <v>7.837988226093001</v>
+        <v>-4.931899319347551</v>
       </c>
       <c r="D24" t="n">
-        <v>1.000205725287709</v>
+        <v>0.9804006145277743</v>
       </c>
     </row>
     <row r="25">
@@ -831,13 +831,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.556156696130509</v>
+        <v>0.5981520949434048</v>
       </c>
       <c r="C25" t="n">
-        <v>7.663563604313251</v>
+        <v>-5.338863293259955</v>
       </c>
       <c r="D25" t="n">
-        <v>1.000214538163643</v>
+        <v>0.9801654627010046</v>
       </c>
     </row>
     <row r="26">
@@ -847,13 +847,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.123783009879515</v>
+        <v>-1.048959398742989</v>
       </c>
       <c r="C26" t="n">
-        <v>7.148735729731255</v>
+        <v>-5.241273706898253</v>
       </c>
       <c r="D26" t="n">
-        <v>1.000223435358403</v>
+        <v>0.9799416739710045</v>
       </c>
     </row>
     <row r="27">
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.548061107191222</v>
+        <v>-2.587806012074195</v>
       </c>
       <c r="C27" t="n">
-        <v>6.315709978915268</v>
+        <v>-4.645915746811083</v>
       </c>
       <c r="D27" t="n">
-        <v>1.000232418088657</v>
+        <v>0.9797284417556538</v>
       </c>
     </row>
     <row r="28">
@@ -879,13 +879,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.764706378976283</v>
+        <v>-3.870054503398932</v>
       </c>
       <c r="C28" t="n">
-        <v>5.201136391103732</v>
+        <v>-3.607484811940752</v>
       </c>
       <c r="D28" t="n">
-        <v>1.000241487594608</v>
+        <v>0.9795250342066121</v>
       </c>
     </row>
     <row r="29">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.718340474588577</v>
+        <v>-4.7699897945122</v>
       </c>
       <c r="C29" t="n">
-        <v>3.854629052954703</v>
+        <v>-2.224511033516379</v>
       </c>
       <c r="D29" t="n">
-        <v>1.000250645140558</v>
+        <v>0.9793307857355579</v>
       </c>
     </row>
     <row r="30">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.365108660177039</v>
+        <v>-5.19742892287099</v>
       </c>
       <c r="C30" t="n">
-        <v>2.33667288951856</v>
+        <v>-0.6308373556421178</v>
       </c>
       <c r="D30" t="n">
-        <v>1.000259892015507</v>
+        <v>0.979145089669353</v>
       </c>
     </row>
     <row r="31">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.674816561202618</v>
+        <v>-5.107589684031956</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7159998762166982</v>
+        <v>1.016715044485969</v>
       </c>
       <c r="D31" t="n">
-        <v>1.00026922953375</v>
+        <v>0.9789673918622854</v>
       </c>
     </row>
     <row r="32">
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7.632477978013934</v>
+        <v>-4.506779917025354</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.9334568356663058</v>
+        <v>2.553441312848604</v>
       </c>
       <c r="D32" t="n">
-        <v>1.000278659035505</v>
+        <v>0.9787971851228243</v>
       </c>
     </row>
     <row r="33">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.239189641608865</v>
+        <v>-3.453129319429462</v>
       </c>
       <c r="C33" t="n">
-        <v>-2.535900059137877</v>
+        <v>3.823213110529508</v>
       </c>
       <c r="D33" t="n">
-        <v>1.000288181887555</v>
+        <v>0.9786340043361095</v>
       </c>
     </row>
     <row r="34">
@@ -975,13 +975,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.512277615132813</v>
+        <v>-2.052046403338585</v>
       </c>
       <c r="C34" t="n">
-        <v>-4.017149162349933</v>
+        <v>4.694686955368431</v>
       </c>
       <c r="D34" t="n">
-        <v>1.000297799483909</v>
+        <v>0.9784774221828119</v>
       </c>
     </row>
     <row r="35">
@@ -991,13 +991,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5.484692378197733</v>
+        <v>-0.4466097039730098</v>
       </c>
       <c r="C35" t="n">
-        <v>-5.308105622047501</v>
+        <v>5.075571457980692</v>
       </c>
       <c r="D35" t="n">
-        <v>1.000307513246485</v>
+        <v>0.9783270453709023</v>
       </c>
     </row>
     <row r="36">
@@ -1007,13 +1007,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.20366407642831</v>
+        <v>1.196354955402563</v>
       </c>
       <c r="C36" t="n">
-        <v>-6.348041432598953</v>
+        <v>4.923363941599629</v>
       </c>
       <c r="D36" t="n">
-        <v>1.000317324625812</v>
+        <v>0.9781825113099697</v>
       </c>
     </row>
     <row r="37">
@@ -1023,13 +1023,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.728664440838594</v>
+        <v>2.703256495608763</v>
       </c>
       <c r="C37" t="n">
-        <v>-7.087552132326601</v>
+        <v>4.251242116240473</v>
       </c>
       <c r="D37" t="n">
-        <v>1.00032723510175</v>
+        <v>0.9780434851685598</v>
       </c>
     </row>
     <row r="38">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.128755851173374</v>
+        <v>3.91211946902904</v>
       </c>
       <c r="C38" t="n">
-        <v>-7.491027664071309</v>
+        <v>3.128232627636972</v>
       </c>
       <c r="D38" t="n">
-        <v>1.000337246184241</v>
+        <v>0.9779096572639836</v>
       </c>
     </row>
     <row r="39">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.5205607151702802</v>
+        <v>4.690446907956475</v>
       </c>
       <c r="C39" t="n">
-        <v>-7.538513072204798</v>
+        <v>1.673342117044281</v>
       </c>
       <c r="D39" t="n">
-        <v>1.000347359414074</v>
+        <v>0.9777807407415458</v>
       </c>
     </row>
     <row r="40">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-2.140860133220438</v>
+        <v>4.950582250768941</v>
       </c>
       <c r="C40" t="n">
-        <v>-7.226856537109944</v>
+        <v>0.04397733179210859</v>
       </c>
       <c r="D40" t="n">
-        <v>1.000357576363679</v>
+        <v>0.9776564695063931</v>
       </c>
     </row>
     <row r="41">
@@ -1087,13 +1087,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-3.654510038857939</v>
+        <v>4.660736081772479</v>
       </c>
       <c r="C41" t="n">
-        <v>-6.570073495943185</v>
+        <v>-1.580365365522137</v>
       </c>
       <c r="D41" t="n">
-        <v>1.000367898637942</v>
+        <v>0.9775365963764469</v>
       </c>
     </row>
     <row r="42">
@@ -1103,13 +1103,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-4.988416019818927</v>
+        <v>3.850209180950894</v>
       </c>
       <c r="C42" t="n">
-        <v>-5.598891312232404</v>
+        <v>-3.017566166748091</v>
       </c>
       <c r="D42" t="n">
-        <v>1.000378327875046</v>
+        <v>0.9774208914293038</v>
       </c>
     </row>
     <row r="43">
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-6.077614626184535</v>
+        <v>2.6079044405933</v>
       </c>
       <c r="C43" t="n">
-        <v>-4.359477581514568</v>
+        <v>-4.103466222961861</v>
       </c>
       <c r="D43" t="n">
-        <v>1.000388865747345</v>
+        <v>0.9773091405197277</v>
       </c>
     </row>
     <row r="44">
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-6.868536011181167</v>
+        <v>1.073930028396324</v>
       </c>
       <c r="C44" t="n">
-        <v>-2.911394930988123</v>
+        <v>-4.711267590782742</v>
       </c>
       <c r="D44" t="n">
-        <v>1.000399513962252</v>
+        <v>0.9772011439475236</v>
       </c>
     </row>
     <row r="45">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-7.321769070405394</v>
+        <v>-0.5751139671957396</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.324864189392893</v>
+        <v>-4.76742719015586</v>
       </c>
       <c r="D45" t="n">
-        <v>1.00041027426317</v>
+        <v>0.9770967152582802</v>
       </c>
     </row>
     <row r="46">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-7.414181588865449</v>
+        <v>-2.145788752827869</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3225458768724562</v>
+        <v>-4.261976185824603</v>
       </c>
       <c r="D46" t="n">
-        <v>1.000421148430442</v>
+        <v>0.9769956801617546</v>
       </c>
     </row>
     <row r="47">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-7.140275498373615</v>
+        <v>-3.450348303439529</v>
       </c>
       <c r="C47" t="n">
-        <v>1.949652343454075</v>
+        <v>-3.251716625658062</v>
       </c>
       <c r="D47" t="n">
-        <v>1.000432138282337</v>
+        <v>0.976897875554646</v>
       </c>
     </row>
     <row r="48">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-6.512691837691484</v>
+        <v>-4.32959431422224</v>
       </c>
       <c r="C48" t="n">
-        <v>3.475640137915474</v>
+        <v>-1.855497999323803</v>
       </c>
       <c r="D48" t="n">
-        <v>1.000443245676062</v>
+        <v>0.9768031486361762</v>
       </c>
     </row>
     <row r="49">
@@ -1215,13 +1215,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-5.56181994759947</v>
+        <v>-4.673277504041063</v>
       </c>
       <c r="C49" t="n">
-        <v>4.824099499050613</v>
+        <v>-0.2416882630054219</v>
       </c>
       <c r="D49" t="n">
-        <v>1.000454472508814</v>
+        <v>0.9767113561063518</v>
       </c>
     </row>
     <row r="50">
@@ -1231,13 +1231,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-4.334509036979716</v>
+        <v>-4.435370970832726</v>
       </c>
       <c r="C50" t="n">
-        <v>5.926917674759521</v>
+        <v>1.39107028664509</v>
       </c>
       <c r="D50" t="n">
-        <v>1.000465820718862</v>
+        <v>0.976622363438014</v>
       </c>
     </row>
     <row r="51">
@@ -1247,13 +1247,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-2.891925472189817</v>
+        <v>-3.641988986168832</v>
       </c>
       <c r="C51" t="n">
-        <v>6.727825071777558</v>
+        <v>2.837806277215176</v>
       </c>
       <c r="D51" t="n">
-        <v>1.000477292286665</v>
+        <v>0.9765360442148735</v>
       </c>
     </row>
     <row r="52">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-1.306643742877981</v>
+        <v>-2.390495206660236</v>
       </c>
       <c r="C52" t="n">
-        <v>7.185407674932624</v>
+        <v>3.91310312918269</v>
       </c>
       <c r="D52" t="n">
-        <v>1.000488889236025</v>
+        <v>0.9764522795286464</v>
       </c>
     </row>
     <row r="53">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.3408992558142773</v>
+        <v>-0.839371579895784</v>
       </c>
       <c r="C53" t="n">
-        <v>7.275419160089477</v>
+        <v>4.475700227018317</v>
       </c>
       <c r="D53" t="n">
-        <v>1.000500613635281</v>
+        <v>0.9763709574292233</v>
       </c>
     </row>
     <row r="54">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.966420467804633</v>
+        <v>0.8104043948859856</v>
       </c>
       <c r="C54" t="n">
-        <v>6.992257034497845</v>
+        <v>4.448511386791043</v>
       </c>
       <c r="D54" t="n">
-        <v>1.000512467598543</v>
+        <v>0.9762919724224998</v>
       </c>
     </row>
     <row r="55">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3.486082037834457</v>
+        <v>2.340541264698692</v>
       </c>
       <c r="C55" t="n">
-        <v>6.349506139846939</v>
+        <v>3.831112682840524</v>
       </c>
       <c r="D55" t="n">
-        <v>1.000524453286961</v>
+        <v>0.9762152250111188</v>
       </c>
     </row>
     <row r="56">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4.820842208349372</v>
+        <v>3.544206034570765</v>
       </c>
       <c r="C56" t="n">
-        <v>5.379498259875249</v>
+        <v>2.702533433621039</v>
       </c>
       <c r="D56" t="n">
-        <v>1.000536572910048</v>
+        <v>0.9761406212738992</v>
       </c>
     </row>
     <row r="57">
@@ -1343,13 +1343,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5.900640505168621</v>
+        <v>4.254691707036843</v>
       </c>
       <c r="C57" t="n">
-        <v>4.131886285667545</v>
+        <v>1.213335626336734</v>
       </c>
       <c r="D57" t="n">
-        <v>1.000548828727035</v>
+        <v>0.9760680724801988</v>
       </c>
     </row>
     <row r="58">
@@ -1359,13 +1359,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>6.668193754850826</v>
+        <v>4.369999137220572</v>
       </c>
       <c r="C58" t="n">
-        <v>2.671282982610105</v>
+        <v>-0.4326304111453484</v>
       </c>
       <c r="D58" t="n">
-        <v>1.00056122304828</v>
+        <v>0.9759974947358732</v>
       </c>
     </row>
     <row r="59">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>7.082193105943228</v>
+        <v>3.869599600533892</v>
       </c>
       <c r="C59" t="n">
-        <v>1.074065233743325</v>
+        <v>-2.004921829325756</v>
       </c>
       <c r="D59" t="n">
-        <v>1.000573758236724</v>
+        <v>0.9759288086578459</v>
       </c>
     </row>
     <row r="60">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>7.119717473302342</v>
+        <v>2.820449412239021</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.5755080207241408</v>
+        <v>-3.278414617841198</v>
       </c>
       <c r="D60" t="n">
-        <v>1.000586436709398</v>
+        <v>0.9758619390746288</v>
       </c>
     </row>
     <row r="61">
@@ -1407,13 +1407,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>6.777714837244877</v>
+        <v>1.370638451532998</v>
       </c>
       <c r="C61" t="n">
-        <v>-2.189674739786931</v>
+        <v>-4.066163421849631</v>
       </c>
       <c r="D61" t="n">
-        <v>1.000599260938975</v>
+        <v>0.9757968147504039</v>
       </c>
     </row>
     <row r="62">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>6.073448137053726</v>
+        <v>-0.2692630720727328</v>
       </c>
       <c r="C62" t="n">
-        <v>-3.681823664995768</v>
+        <v>-4.24843517741169</v>
       </c>
       <c r="D62" t="n">
-        <v>1.000612233455385</v>
+        <v>0.9757333681305377</v>
       </c>
     </row>
     <row r="63">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5.043855058345093</v>
+        <v>-1.855248191986808</v>
       </c>
       <c r="C63" t="n">
-        <v>-4.971179353809106</v>
+        <v>-3.793296517868023</v>
       </c>
       <c r="D63" t="n">
-        <v>1.000625356847482</v>
+        <v>0.9756715351066031</v>
       </c>
     </row>
     <row r="64">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3.743828289830901</v>
+        <v>-3.145644972591526</v>
       </c>
       <c r="C64" t="n">
-        <v>-5.987265177520177</v>
+        <v>-2.76500854818003</v>
       </c>
       <c r="D64" t="n">
-        <v>1.00063863376477</v>
+        <v>0.9756112547991868</v>
       </c>
     </row>
     <row r="65">
@@ -1471,13 +1471,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2.24348189887019</v>
+        <v>-3.938582654033056</v>
       </c>
       <c r="C65" t="n">
-        <v>-6.673895141278917</v>
+        <v>-1.318028992916657</v>
       </c>
       <c r="D65" t="n">
-        <v>1.000652066919191</v>
+        <v>0.9755524693569323</v>
       </c>
     </row>
     <row r="66">
@@ -1487,13 +1487,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.6245271855336791</v>
+        <v>-4.105388783294317</v>
       </c>
       <c r="C66" t="n">
-        <v>-6.992463244147777</v>
+        <v>0.3235177518460606</v>
       </c>
       <c r="D66" t="n">
-        <v>1.000665659086974</v>
+        <v>0.9754951237704169</v>
       </c>
     </row>
     <row r="67">
@@ -1503,13 +1503,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-1.024065521945427</v>
+        <v>-3.614265343280192</v>
       </c>
       <c r="C67" t="n">
-        <v>-6.924330397101721</v>
+        <v>1.898731314087371</v>
       </c>
       <c r="D67" t="n">
-        <v>1.000679413110556</v>
+        <v>0.9754391656996011</v>
       </c>
     </row>
     <row r="68">
@@ -1519,13 +1519,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-2.610897322042657</v>
+        <v>-2.539635317989771</v>
       </c>
       <c r="C68" t="n">
-        <v>-6.472152513741275</v>
+        <v>3.150797729556082</v>
       </c>
       <c r="D68" t="n">
-        <v>1.000693331900565</v>
+        <v>0.9753845453137059</v>
       </c>
     </row>
     <row r="69">
@@ -1535,13 +1535,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-4.047206925498063</v>
+        <v>-1.054477118773506</v>
       </c>
       <c r="C69" t="n">
-        <v>-5.660047395531923</v>
+        <v>3.869689323123077</v>
       </c>
       <c r="D69" t="n">
-        <v>1.000707418437878</v>
+        <v>0.9753312151424912</v>
       </c>
     </row>
     <row r="70">
@@ -1551,13 +1551,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-5.251894399706139</v>
+        <v>0.5944329291439449</v>
       </c>
       <c r="C70" t="n">
-        <v>-4.532559883633829</v>
+        <v>3.929653094500031</v>
       </c>
       <c r="D70" t="n">
-        <v>1.000721675775758</v>
+        <v>0.975279129937994</v>
       </c>
     </row>
     <row r="71">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-6.156217518057562</v>
+        <v>2.125524188034752</v>
       </c>
       <c r="C71" t="n">
-        <v>-3.152451301813085</v>
+        <v>3.314625000060774</v>
       </c>
       <c r="D71" t="n">
-        <v>1.000736107042062</v>
+        <v>0.9752282465458773</v>
       </c>
     </row>
     <row r="72">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-6.707884907390129</v>
+        <v>3.27005341465262</v>
       </c>
       <c r="C72" t="n">
-        <v>-1.597406900020363</v>
+        <v>2.12611633395031</v>
       </c>
       <c r="D72" t="n">
-        <v>1.000750715441535</v>
+        <v>0.9751785237856231</v>
       </c>
     </row>
     <row r="73">
@@ -1599,13 +1599,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-6.874295465565234</v>
+        <v>3.820594085667683</v>
       </c>
       <c r="C73" t="n">
-        <v>0.04417999263193417</v>
+        <v>0.570672677123896</v>
       </c>
       <c r="D73" t="n">
-        <v>1.000765504258189</v>
+        <v>0.9751299223388643</v>
       </c>
     </row>
     <row r="74">
@@ -1615,13 +1615,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-6.644714217101005</v>
+        <v>3.671661200689143</v>
       </c>
       <c r="C74" t="n">
-        <v>1.678129946074132</v>
+        <v>-1.072592059848474</v>
       </c>
       <c r="D74" t="n">
-        <v>1.00078047685777</v>
+        <v>0.9750824046452164</v>
       </c>
     </row>
     <row r="75">
@@ -1631,13 +1631,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-6.031229243240878</v>
+        <v>2.844249306861103</v>
       </c>
       <c r="C75" t="n">
-        <v>3.209840162416594</v>
+        <v>-2.500138751890179</v>
       </c>
       <c r="D75" t="n">
-        <v>1.000795636690319</v>
+        <v>0.9750359348050315</v>
       </c>
     </row>
     <row r="76">
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-5.068400030637903</v>
+        <v>1.488191822268178</v>
       </c>
       <c r="C76" t="n">
-        <v>4.549787888023179</v>
+        <v>-3.440143059582167</v>
       </c>
       <c r="D76" t="n">
-        <v>1.000810987292825</v>
+        <v>0.9749904784885396</v>
       </c>
     </row>
     <row r="77">
@@ -1663,13 +1663,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-3.811581204047533</v>
+        <v>-0.1401605335076279</v>
       </c>
       <c r="C77" t="n">
-        <v>5.618855910708302</v>
+        <v>-3.706542394114766</v>
       </c>
       <c r="D77" t="n">
-        <v>1.000826532291987</v>
+        <v>0.9749460028508956</v>
       </c>
     </row>
     <row r="78">
@@ -1679,13 +1679,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-2.333983173264017</v>
+        <v>-1.722872411643692</v>
       </c>
       <c r="C78" t="n">
-        <v>6.353161064867481</v>
+        <v>-3.2401486647326</v>
       </c>
       <c r="D78" t="n">
-        <v>1.000842275407077</v>
+        <v>0.9749024764526867</v>
       </c>
     </row>
     <row r="79">
@@ -1695,13 +1695,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.7226083164064483</v>
+        <v>-2.941105290238545</v>
       </c>
       <c r="C79" t="n">
-        <v>6.708085099961173</v>
+        <v>-2.127310557229744</v>
       </c>
       <c r="D79" t="n">
-        <v>1.000858220452912</v>
+        <v>0.9748598691854955</v>
       </c>
     </row>
     <row r="80">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.9267266860431949</v>
+        <v>-3.540621294290851</v>
       </c>
       <c r="C80" t="n">
-        <v>6.661244415782946</v>
+        <v>-0.5900790974667248</v>
       </c>
       <c r="D80" t="n">
-        <v>1.000874371342946</v>
+        <v>0.9748181522021473</v>
       </c>
     </row>
     <row r="81">
@@ -1727,13 +1727,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2.515009430593898</v>
+        <v>-3.388823988438073</v>
       </c>
       <c r="C81" t="n">
-        <v>6.214189695013063</v>
+        <v>1.052923512980335</v>
       </c>
       <c r="D81" t="n">
-        <v>1.000890732092479</v>
+        <v>0.9747772978513043</v>
       </c>
     </row>
     <row r="82">
@@ -1743,13 +1743,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3.945969933075236</v>
+        <v>-2.510197398217743</v>
       </c>
       <c r="C82" t="n">
-        <v>5.392695909072831</v>
+        <v>2.449532017521877</v>
       </c>
       <c r="D82" t="n">
-        <v>1.000907306821992</v>
+        <v>0.9747372796160846</v>
       </c>
     </row>
     <row r="83">
@@ -1759,13 +1759,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>5.131986098180978</v>
+        <v>-1.090065585441224</v>
       </c>
       <c r="C83" t="n">
-        <v>4.245584033052051</v>
+        <v>3.28960679653866</v>
       </c>
       <c r="D83" t="n">
-        <v>1.000924099760622</v>
+        <v>0.9746980720564329</v>
       </c>
     </row>
     <row r="84">
@@ -1775,13 +1775,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>5.999593672984608</v>
+        <v>0.5575939186469201</v>
       </c>
       <c r="C84" t="n">
-        <v>2.842103681873871</v>
+        <v>3.377459847641211</v>
       </c>
       <c r="D84" t="n">
-        <v>1.000941115249759</v>
+        <v>0.974659650754966</v>
       </c>
     </row>
     <row r="85">
@@ -1791,13 +1791,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>6.49424916262259</v>
+        <v>2.054822747708143</v>
       </c>
       <c r="C85" t="n">
-        <v>1.267995697467742</v>
+        <v>2.684058208309454</v>
       </c>
       <c r="D85" t="n">
-        <v>1.000958357746806</v>
+        <v>0.9746219922660583</v>
       </c>
     </row>
     <row r="86">
@@ -1807,13 +1807,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>6.584027818806094</v>
+        <v>3.045204789672172</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.3795600050485053</v>
+        <v>1.364344826186204</v>
       </c>
       <c r="D86" t="n">
-        <v>1.000975831829077</v>
+        <v>0.9745850740679396</v>
       </c>
     </row>
     <row r="87">
@@ -1823,13 +1823,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>6.261993764552389</v>
+        <v>3.281879321548931</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.997828854127914</v>
+        <v>-0.2685927617089746</v>
       </c>
       <c r="D87" t="n">
-        <v>1.000993542197863</v>
+        <v>0.9745488745176029</v>
       </c>
     </row>
     <row r="88">
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>5.547053202985072</v>
+        <v>2.696377343378487</v>
       </c>
       <c r="C88" t="n">
-        <v>-3.484893073798995</v>
+        <v>-1.811216317071242</v>
       </c>
       <c r="D88" t="n">
-        <v>1.001011493682656</v>
+        <v>0.9745133728083262</v>
       </c>
     </row>
     <row r="89">
@@ -1855,13 +1855,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4.483190749845962</v>
+        <v>1.428275337193103</v>
       </c>
       <c r="C89" t="n">
-        <v>-4.746121316743526</v>
+        <v>-2.866875969567551</v>
       </c>
       <c r="D89" t="n">
-        <v>1.001029691245553</v>
+        <v>0.9744785489296379</v>
       </c>
     </row>
     <row r="90">
@@ -1871,13 +1871,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3.137088319717376</v>
+        <v>-0.1971002628993034</v>
       </c>
       <c r="C90" t="n">
-        <v>-5.700326875101868</v>
+        <v>-3.150872727690307</v>
       </c>
       <c r="D90" t="n">
-        <v>1.001048139985844</v>
+        <v>0.9744443836295625</v>
       </c>
     </row>
     <row r="91">
@@ -1887,13 +1887,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1.594229830133499</v>
+        <v>-1.743619745957618</v>
       </c>
       <c r="C91" t="n">
-        <v>-6.285209496761175</v>
+        <v>-2.575740144261887</v>
       </c>
       <c r="D91" t="n">
-        <v>1.001066845144784</v>
+        <v>0.9744108583789923</v>
       </c>
     </row>
     <row r="92">
@@ -1903,13 +1903,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.04630321820273901</v>
+        <v>-2.778050394178325</v>
       </c>
       <c r="C92" t="n">
-        <v>-6.461706854578554</v>
+        <v>-1.290262321029732</v>
       </c>
       <c r="D92" t="n">
-        <v>1.001085812110573</v>
+        <v>0.974377955338054</v>
       </c>
     </row>
     <row r="93">
@@ -1919,13 +1919,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-1.67804720544344</v>
+        <v>-2.995099472229239</v>
       </c>
       <c r="C93" t="n">
-        <v>-6.216938474055699</v>
+        <v>0.3453995320796582</v>
       </c>
       <c r="D93" t="n">
-        <v>1.001105046423546</v>
+        <v>0.9743456573243335</v>
       </c>
     </row>
     <row r="94">
@@ -1935,13 +1935,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-3.194007128446906</v>
+        <v>-2.318237279940948</v>
       </c>
       <c r="C94" t="n">
-        <v>-5.565505045494229</v>
+        <v>1.850177779081752</v>
       </c>
       <c r="D94" t="n">
-        <v>1.001124553781584</v>
+        <v>0.974313947782845</v>
       </c>
     </row>
     <row r="95">
@@ -1951,13 +1951,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-4.493710407139158</v>
+        <v>-0.9417696194737701</v>
       </c>
       <c r="C95" t="n">
-        <v>-4.549005469814698</v>
+        <v>2.76003314104211</v>
       </c>
       <c r="D95" t="n">
-        <v>1.001144340045753</v>
+        <v>0.9742828107576325</v>
       </c>
     </row>
     <row r="96">
@@ -1967,13 +1967,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-5.490001273037596</v>
+        <v>0.7081455226072862</v>
       </c>
       <c r="C96" t="n">
-        <v>-3.2337471261699</v>
+        <v>2.77676705665203</v>
       </c>
       <c r="D96" t="n">
-        <v>1.001164411246197</v>
+        <v>0.9742522308649001</v>
       </c>
     </row>
     <row r="97">
@@ -1983,13 +1983,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-6.115112529246096</v>
+        <v>2.093492257231508</v>
       </c>
       <c r="C97" t="n">
-        <v>-1.706744861154752</v>
+        <v>1.880488960932846</v>
       </c>
       <c r="D97" t="n">
-        <v>1.001184773588278</v>
+        <v>0.9742221932675766</v>
       </c>
     </row>
     <row r="98">
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-6.325581951277111</v>
+        <v>2.737732403916532</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.0702233604130174</v>
+        <v>0.3614581405084388</v>
       </c>
       <c r="D98" t="n">
-        <v>1.001205433458993</v>
+        <v>0.9741926836512258</v>
       </c>
     </row>
     <row r="99">
@@ -2015,13 +2015,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-6.105641899422365</v>
+        <v>2.40018910586729</v>
       </c>
       <c r="C99" t="n">
-        <v>1.565052265770552</v>
+        <v>-1.253646971223314</v>
       </c>
       <c r="D99" t="n">
-        <v>1.001226397433673</v>
+        <v>0.9741636882012198</v>
       </c>
     </row>
     <row r="100">
@@ -2031,13 +2031,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-5.468800322831947</v>
+        <v>1.18750423941929</v>
       </c>
       <c r="C100" t="n">
-        <v>3.087199698290054</v>
+        <v>-2.37252829410256</v>
       </c>
       <c r="D100" t="n">
-        <v>1.001247672282976</v>
+        <v>0.9741351935811006</v>
       </c>
     </row>
     <row r="101">
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-4.457444632370415</v>
+        <v>-0.4520910554658206</v>
       </c>
       <c r="C101" t="n">
-        <v>4.390909661192524</v>
+        <v>-2.557534426407961</v>
       </c>
       <c r="D101" t="n">
-        <v>1.001269264980206</v>
+        <v>0.9741071869120541</v>
       </c>
     </row>
     <row r="102">
@@ -2063,13 +2063,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-3.1404303487718</v>
+        <v>-1.871863416068236</v>
       </c>
       <c r="C102" t="n">
-        <v>5.384878160088404</v>
+        <v>-1.716852296189022</v>
       </c>
       <c r="D102" t="n">
-        <v>1.001291182708949</v>
+        <v>0.9740796557534356</v>
       </c>
     </row>
     <row r="103">
@@ -2079,13 +2079,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-1.608755827197536</v>
+        <v>-2.474782410965216</v>
       </c>
       <c r="C103" t="n">
-        <v>5.998452246862059</v>
+        <v>-0.1809523366889206</v>
       </c>
       <c r="D103" t="n">
-        <v>1.00131343287107</v>
+        <v>0.9740525880842795</v>
       </c>
     </row>
     <row r="104">
@@ -2095,13 +2095,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.03043660011781732</v>
+        <v>-1.980348016333117</v>
       </c>
       <c r="C104" t="n">
-        <v>6.186994513295641</v>
+        <v>1.393225108647151</v>
       </c>
       <c r="D104" t="n">
-        <v>1.001336023095066</v>
+        <v>0.9740259722857406</v>
       </c>
     </row>
     <row r="105">
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1.661163926662842</v>
+        <v>-0.5916533105548957</v>
       </c>
       <c r="C105" t="n">
-        <v>5.935541960197979</v>
+        <v>2.284307043232045</v>
       </c>
       <c r="D105" t="n">
-        <v>1.001358961244818</v>
+        <v>0.9739997971244074</v>
       </c>
     </row>
     <row r="106">
@@ -2127,13 +2127,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3.166732332618453</v>
+        <v>1.041150758500279</v>
       </c>
       <c r="C106" t="n">
-        <v>5.260439171736643</v>
+        <v>2.046713120589075</v>
       </c>
       <c r="D106" t="n">
-        <v>1.001382255428743</v>
+        <v>0.9739740517364414</v>
       </c>
     </row>
     <row r="107">
@@ -2143,13 +2143,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>4.438136001365336</v>
+        <v>2.092194049567327</v>
       </c>
       <c r="C107" t="n">
-        <v>4.208758273794289</v>
+        <v>0.7747823047413899</v>
       </c>
       <c r="D107" t="n">
-        <v>1.00140591400938</v>
+        <v>0.9739487256124943</v>
       </c>
     </row>
     <row r="108">
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>5.382124081313656</v>
+        <v>1.980472525730775</v>
       </c>
       <c r="C108" t="n">
-        <v>2.855470978015819</v>
+        <v>-0.8714310171314602</v>
       </c>
       <c r="D108" t="n">
-        <v>1.001429945613429</v>
+        <v>0.9739238085833561</v>
       </c>
     </row>
     <row r="109">
@@ -2175,13 +2175,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>5.928333576918203</v>
+        <v>0.7397186068991634</v>
       </c>
       <c r="C109" t="n">
-        <v>1.298501104539925</v>
+        <v>-1.959102710660361</v>
       </c>
       <c r="D109" t="n">
-        <v>1.001454359142274</v>
+        <v>0.9738992908062978</v>
       </c>
     </row>
     <row r="110">
@@ -2191,13 +2191,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>6.034928910936348</v>
+        <v>-0.9034303498541308</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.3480520937399107</v>
+        <v>-1.808897830844195</v>
       </c>
       <c r="D110" t="n">
-        <v>1.001479163783008</v>
+        <v>0.9738751627520649</v>
       </c>
     </row>
     <row r="111">
@@ -2207,13 +2207,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>5.692275657598442</v>
+        <v>-1.886006438466704</v>
       </c>
       <c r="C111" t="n">
-        <v>-1.962080825819056</v>
+        <v>-0.483362380512202</v>
       </c>
       <c r="D111" t="n">
-        <v>1.001504369019995</v>
+        <v>0.9738514151924886</v>
       </c>
     </row>
     <row r="112">
@@ -2223,13 +2223,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>4.924302617111222</v>
+        <v>-1.496021466453228</v>
       </c>
       <c r="C112" t="n">
-        <v>-3.42246345002577</v>
+        <v>1.11988798097338</v>
       </c>
       <c r="D112" t="n">
-        <v>1.001529984647005</v>
+        <v>0.9738280391886827</v>
       </c>
     </row>
     <row r="113">
@@ -2239,13 +2239,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>3.787365818095765</v>
+        <v>0.01319075924163575</v>
       </c>
       <c r="C113" t="n">
-        <v>-4.618237138916924</v>
+        <v>1.786805110617803</v>
       </c>
       <c r="D113" t="n">
-        <v>1.001556020779937</v>
+        <v>0.9738050260797877</v>
       </c>
     </row>
     <row r="114">
@@ -2255,13 +2255,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2.366610040567831</v>
+        <v>1.423568492405381</v>
       </c>
       <c r="C114" t="n">
-        <v>-5.457256221310801</v>
+        <v>0.9304555033919383</v>
       </c>
       <c r="D114" t="n">
-        <v>1.001582487870185</v>
+        <v>0.9737823674722395</v>
       </c>
     </row>
     <row r="115">
@@ -2271,13 +2271,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.7700154525790027</v>
+        <v>1.439667093891177</v>
       </c>
       <c r="C115" t="n">
-        <v>-5.873652332729791</v>
+        <v>-0.7194659598996325</v>
       </c>
       <c r="D115" t="n">
-        <v>1.001609396718669</v>
+        <v>0.9737600552295306</v>
       </c>
     </row>
     <row r="116">
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-0.8794953019232309</v>
+        <v>-0.007508000118673853</v>
       </c>
       <c r="C116" t="n">
-        <v>-5.833474343959814</v>
+        <v>-1.512046711166261</v>
       </c>
       <c r="D116" t="n">
-        <v>1.001636758490583</v>
+        <v>0.973738081462438</v>
       </c>
     </row>
     <row r="117">
@@ -2303,13 +2303,13 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-2.453345661807803</v>
+        <v>-1.313726229747166</v>
       </c>
       <c r="C117" t="n">
-        <v>-5.337999778829359</v>
+        <v>-0.5039326617719444</v>
       </c>
       <c r="D117" t="n">
-        <v>1.001664584730891</v>
+        <v>0.9737164385196957</v>
       </c>
     </row>
     <row r="118">
@@ -2319,13 +2319,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-3.827310542438637</v>
+        <v>-0.007508000118668483</v>
       </c>
       <c r="C118" t="n">
-        <v>-4.424369379379398</v>
+        <v>-1.512046711166261</v>
       </c>
       <c r="D118" t="n">
-        <v>1.001692887380622</v>
+        <v>0.973695118979085</v>
       </c>
     </row>
     <row r="119">
@@ -2335,13 +2335,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-4.891471340495245</v>
+        <v>-1.313726229747164</v>
       </c>
       <c r="C119" t="n">
-        <v>-3.163392854664149</v>
+        <v>-0.5039326617719491</v>
       </c>
       <c r="D119" t="n">
-        <v>1.001721678794016</v>
+        <v>0.9736741156389208</v>
       </c>
     </row>
     <row r="120">
@@ -2351,13 +2351,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-5.559321459139649</v>
+        <v>-0.007508000118663112</v>
       </c>
       <c r="C120" t="n">
-        <v>-1.654593259280954</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D120" t="n">
-        <v>1.001750971756564</v>
+        <v>0.9736534215099184</v>
       </c>
     </row>
     <row r="121">
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-5.775254155564012</v>
+        <v>-1.313726229747163</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.01878365220080901</v>
+        <v>-0.5039326617719538</v>
       </c>
       <c r="D121" t="n">
-        <v>1.001780779504002</v>
+        <v>0.973633029807416</v>
       </c>
     </row>
     <row r="122">
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-5.519759725339851</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C122" t="n">
-        <v>1.611315300662097</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D122" t="n">
-        <v>1.001811115742325</v>
+        <v>0.973612933943936</v>
       </c>
     </row>
     <row r="123">
@@ -2399,13 +2399,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-4.811814959765743</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C123" t="n">
-        <v>3.101722697616476</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D123" t="n">
-        <v>1.001841994668871</v>
+        <v>0.9735931275220692</v>
       </c>
     </row>
     <row r="124">
@@ -2415,13 +2415,13 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-3.708155530296555</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C124" t="n">
-        <v>4.328277165931591</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D124" t="n">
-        <v>1.001873430994555</v>
+        <v>0.9735736043276663</v>
       </c>
     </row>
     <row r="125">
@@ -2431,13 +2431,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-2.299367548833586</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C125" t="n">
-        <v>5.187239576800405</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D125" t="n">
-        <v>1.001905439967317</v>
+        <v>0.9735543583233173</v>
       </c>
     </row>
     <row r="126">
@@ -2447,13 +2447,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.7029998468141291</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C126" t="n">
-        <v>5.604504672332145</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D126" t="n">
-        <v>1.001938037396876</v>
+        <v>0.9735353836421106</v>
       </c>
     </row>
     <row r="127">
@@ -2463,13 +2463,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.9458377442195951</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C127" t="n">
-        <v>5.542580538149897</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D127" t="n">
-        <v>1.00197123968086</v>
+        <v>0.9735166745816529</v>
       </c>
     </row>
     <row r="128">
@@ -2479,13 +2479,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2.505685413667848</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C128" t="n">
-        <v>5.004644437746877</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D128" t="n">
-        <v>1.002005063832406</v>
+        <v>0.9734982255983399</v>
       </c>
     </row>
     <row r="129">
@@ -2495,13 +2495,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>3.840856355345249</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C129" t="n">
-        <v>4.035202043119806</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D129" t="n">
-        <v>1.002039527509343</v>
+        <v>0.9734800313018632</v>
       </c>
     </row>
     <row r="130">
@@ -2511,13 +2511,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>4.83344863200827</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C130" t="n">
-        <v>2.717150233702262</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D130" t="n">
-        <v>1.00207464904504</v>
+        <v>0.9734620864499471</v>
       </c>
     </row>
     <row r="131">
@@ -2527,13 +2527,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>5.394179822010527</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C131" t="n">
-        <v>1.165351106057646</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D131" t="n">
-        <v>1.002110447481047</v>
+        <v>0.9734443859432979</v>
       </c>
     </row>
     <row r="132">
@@ -2543,13 +2543,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>5.471027777664809</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.4828583441372489</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D132" t="n">
-        <v>1.002146942601654</v>
+        <v>0.9734269248207598</v>
       </c>
     </row>
     <row r="133">
@@ -2559,13 +2559,13 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>5.054804887118156</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C133" t="n">
-        <v>-2.079498098554311</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D133" t="n">
-        <v>1.002184154970488</v>
+        <v>0.9734096982546661</v>
       </c>
     </row>
     <row r="134">
@@ -2575,13 +2575,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>4.181025690268848</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C134" t="n">
-        <v>-3.479144452157048</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D134" t="n">
-        <v>1.002222105969298</v>
+        <v>0.9733927015463779</v>
       </c>
     </row>
     <row r="135">
@@ -2591,13 +2591,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2.92773368342989</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C135" t="n">
-        <v>-4.552344874069759</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D135" t="n">
-        <v>1.002260817839083</v>
+        <v>0.9733759301219993</v>
       </c>
     </row>
     <row r="136">
@@ -2607,13 +2607,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1.409309722128562</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C136" t="n">
-        <v>-5.198014041481342</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D136" t="n">
-        <v>1.002300313723732</v>
+        <v>0.9733593795282635</v>
       </c>
     </row>
     <row r="137">
@@ -2623,13 +2623,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.2333380175616701</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C137" t="n">
-        <v>-5.353604540197065</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D137" t="n">
-        <v>1.002340617716339</v>
+        <v>0.9733430454285794</v>
       </c>
     </row>
     <row r="138">
@@ -2639,13 +2639,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-1.845438162151037</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C138" t="n">
-        <v>-5.001989518028037</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D138" t="n">
-        <v>1.002381754908419</v>
+        <v>0.9733269235992348</v>
       </c>
     </row>
     <row r="139">
@@ -2655,13 +2655,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-3.272794571263613</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C139" t="n">
-        <v>-4.174249413064266</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D139" t="n">
-        <v>1.002423751442207</v>
+        <v>0.973311009925744</v>
       </c>
     </row>
     <row r="140">
@@ -2671,13 +2671,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-4.376687075582917</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C140" t="n">
-        <v>-2.947904706667253</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D140" t="n">
-        <v>1.002466634566284</v>
+        <v>0.9732953003993393</v>
       </c>
     </row>
     <row r="141">
@@ -2687,13 +2687,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-5.047802619845021</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C141" t="n">
-        <v>-1.440554738593941</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D141" t="n">
-        <v>1.002510432694781</v>
+        <v>0.9732797911135947</v>
       </c>
     </row>
     <row r="142">
@@ -2703,13 +2703,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-5.217777974768024</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2006668731090245</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D142" t="n">
-        <v>1.00255517547043</v>
+        <v>0.9732644782611801</v>
       </c>
     </row>
     <row r="143">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-4.867090479654277</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C143" t="n">
-        <v>1.812969041058719</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D143" t="n">
-        <v>1.002600893831743</v>
+        <v>0.973249358130736</v>
       </c>
     </row>
     <row r="144">
@@ -2735,13 +2735,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-4.028326593636291</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C144" t="n">
-        <v>3.233875492420294</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D144" t="n">
-        <v>1.00264762008467</v>
+        <v>0.9732344271038688</v>
       </c>
     </row>
     <row r="145">
@@ -2751,13 +2751,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-2.784270721461755</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C145" t="n">
-        <v>4.317768931328398</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D145" t="n">
-        <v>1.002695387979056</v>
+        <v>0.9732196816522554</v>
       </c>
     </row>
     <row r="146">
@@ -2767,13 +2767,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-1.260756176572752</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C146" t="n">
-        <v>4.951333001893972</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D146" t="n">
-        <v>1.00274423279029</v>
+        <v>0.9732051183348573</v>
       </c>
     </row>
     <row r="147">
@@ -2783,13 +2783,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.3852385047148016</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C147" t="n">
-        <v>5.066230822470067</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D147" t="n">
-        <v>1.002794191406568</v>
+        <v>0.9731907337952366</v>
       </c>
     </row>
     <row r="148">
@@ -2799,13 +2799,13 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1.981234804047681</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C148" t="n">
-        <v>4.64754739490729</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D148" t="n">
-        <v>1.00284530242222</v>
+        <v>0.9731765247589709</v>
       </c>
     </row>
     <row r="149">
@@ -2815,13 +2815,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>3.357166858000951</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C149" t="n">
-        <v>3.736882262762712</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D149" t="n">
-        <v>1.002897606237591</v>
+        <v>0.9731624880311616</v>
       </c>
     </row>
     <row r="150">
@@ -2831,13 +2831,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>4.363750602079388</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C150" t="n">
-        <v>2.429484402064949</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D150" t="n">
-        <v>1.002951145166033</v>
+        <v>0.9731486204940344</v>
       </c>
     </row>
     <row r="151">
@@ -2847,13 +2847,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>4.889333588323931</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C151" t="n">
-        <v>0.8654311662157623</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D151" t="n">
-        <v>1.003005963548603</v>
+        <v>0.9731349191046237</v>
       </c>
     </row>
     <row r="152">
@@ -2863,13 +2863,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>4.873289743463093</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.784490830438056</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D152" t="n">
-        <v>1.003062107877115</v>
+        <v>0.9731213808925429</v>
       </c>
     </row>
     <row r="153">
@@ -2879,13 +2879,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>4.314282241258431</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C153" t="n">
-        <v>-2.336911718109598</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D153" t="n">
-        <v>1.003119626926268</v>
+        <v>0.9731080029578301</v>
       </c>
     </row>
     <row r="154">
@@ -2895,13 +2895,13 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>3.272185865307326</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C154" t="n">
-        <v>-3.616183051029082</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D154" t="n">
-        <v>1.003178571895658</v>
+        <v>0.9730947824688746</v>
       </c>
     </row>
     <row r="155">
@@ -2911,13 +2911,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1.863103354423034</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C155" t="n">
-        <v>-4.474662216483903</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D155" t="n">
-        <v>1.003238996562515</v>
+        <v>0.9730817166604128</v>
       </c>
     </row>
     <row r="156">
@@ -2927,13 +2927,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.2476700639501338</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C156" t="n">
-        <v>-4.810631387736082</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D156" t="n">
-        <v>1.003300957446154</v>
+        <v>0.9730688028315957</v>
       </c>
     </row>
     <row r="157">
@@ -2943,13 +2943,13 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-1.386360158664328</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C157" t="n">
-        <v>-4.581622148659196</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D157" t="n">
-        <v>1.003364513985188</v>
+        <v>0.9730560383441232</v>
       </c>
     </row>
     <row r="158">
@@ -2959,13 +2959,13 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-2.845508645382508</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C158" t="n">
-        <v>-3.81130682769771</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D158" t="n">
-        <v>1.003429728728675</v>
+        <v>0.9730434206204436</v>
       </c>
     </row>
     <row r="159">
@@ -2975,13 +2975,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-3.953606325427587</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C159" t="n">
-        <v>-2.588760496682537</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D159" t="n">
-        <v>1.003496667542493</v>
+        <v>0.9730309471420137</v>
       </c>
     </row>
     <row r="160">
@@ -2991,13 +2991,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-4.573764415197028</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C160" t="n">
-        <v>-1.059739913533476</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D160" t="n">
-        <v>1.00356539983239</v>
+        <v>0.9730186154476194</v>
       </c>
     </row>
     <row r="161">
@@ -3007,13 +3007,13 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-4.626513134930116</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C161" t="n">
-        <v>0.5894167110982084</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D161" t="n">
-        <v>1.003635998785295</v>
+        <v>0.9730064231317529</v>
       </c>
     </row>
     <row r="162">
@@ -3023,13 +3023,13 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-4.1016163601082</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C162" t="n">
-        <v>2.153700373284042</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D162" t="n">
-        <v>1.003708541630649</v>
+        <v>0.9729943678430452</v>
       </c>
     </row>
     <row r="163">
@@ -3039,13 +3039,13 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-3.061685579075788</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C163" t="n">
-        <v>3.434732757988375</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D163" t="n">
-        <v>1.003783109923749</v>
+        <v>0.9729824472827503</v>
       </c>
     </row>
     <row r="164">
@@ -3055,13 +3055,13 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-1.636627121803695</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C164" t="n">
-        <v>4.266422840505482</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D164" t="n">
-        <v>1.003859789853283</v>
+        <v>0.9729706592032814</v>
       </c>
     </row>
     <row r="165">
@@ -3071,13 +3071,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-0.009074616378267135</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C165" t="n">
-        <v>4.537665982508012</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D165" t="n">
-        <v>1.003938672575491</v>
+        <v>0.9729590014067945</v>
       </c>
     </row>
     <row r="166">
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1.607841507266913</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C166" t="n">
-        <v>4.208907333806176</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D166" t="n">
-        <v>1.004019854577722</v>
+        <v>0.9729474717438193</v>
       </c>
     </row>
     <row r="167">
@@ -3103,13 +3103,13 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2.997905566836884</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C167" t="n">
-        <v>3.319963066547617</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D167" t="n">
-        <v>1.004103438074405</v>
+        <v>0.9729360681119351</v>
       </c>
     </row>
     <row r="168">
@@ -3119,13 +3119,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>3.971027835258381</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C168" t="n">
-        <v>1.987471771753481</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D168" t="n">
-        <v>1.004189531438895</v>
+        <v>0.9729247884544902</v>
       </c>
     </row>
     <row r="169">
@@ -3135,13 +3135,13 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>4.39035419801859</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C169" t="n">
-        <v>0.3916442743421014</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D169" t="n">
-        <v>1.004278249675026</v>
+        <v>0.9729136307593619</v>
       </c>
     </row>
     <row r="170">
@@ -3151,13 +3151,13 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>4.19334784236261</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C170" t="n">
-        <v>-1.246552446394192</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D170" t="n">
-        <v>1.004369714932718</v>
+        <v>0.9729025930577589</v>
       </c>
     </row>
     <row r="171">
@@ -3167,13 +3167,13 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>3.403445507689292</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C171" t="n">
-        <v>-2.695191221823616</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D171" t="n">
-        <v>1.004464057072503</v>
+        <v>0.9728916734230593</v>
       </c>
     </row>
     <row r="172">
@@ -3183,13 +3183,13 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2.129961480910679</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C172" t="n">
-        <v>-3.744352045310552</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D172" t="n">
-        <v>1.004561414284486</v>
+        <v>0.972880869969687</v>
       </c>
     </row>
     <row r="173">
@@ -3199,13 +3199,13 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.5554315995652979</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C173" t="n">
-        <v>-4.237662954120119</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D173" t="n">
-        <v>1.004661933767975</v>
+        <v>0.9728701808520253</v>
       </c>
     </row>
     <row r="174">
@@ -3215,13 +3215,13 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-1.088615381548471</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C174" t="n">
-        <v>-4.097628944355471</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D174" t="n">
-        <v>1.004765772478827</v>
+        <v>0.9728596042633623</v>
       </c>
     </row>
     <row r="175">
@@ -3231,13 +3231,13 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-2.55463820558102</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C175" t="n">
-        <v>-3.340478312436242</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D175" t="n">
-        <v>1.004873097952539</v>
+        <v>0.9728491384348715</v>
       </c>
     </row>
     <row r="176">
@@ -3247,13 +3247,13 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-3.616399038882633</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C176" t="n">
-        <v>-2.077480318428844</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D176" t="n">
-        <v>1.004984089212185</v>
+        <v>0.9728387816346222</v>
       </c>
     </row>
     <row r="177">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-4.105119696811216</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.5015196214208211</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D177" t="n">
-        <v>1.00509893777161</v>
+        <v>0.9728285321666243</v>
       </c>
     </row>
     <row r="178">
@@ -3279,13 +3279,13 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-3.938656979975234</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C178" t="n">
-        <v>1.140061982978969</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D178" t="n">
-        <v>1.005217848745743</v>
+        <v>0.9728183883698993</v>
       </c>
     </row>
     <row r="179">
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-3.138452484455864</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C179" t="n">
-        <v>2.583035567404871</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D179" t="n">
-        <v>1.005341042081651</v>
+        <v>0.9728083486175805</v>
       </c>
     </row>
     <row r="180">
@@ -3311,13 +3311,13 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-1.830515033093382</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C180" t="n">
-        <v>3.588918077106627</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D180" t="n">
-        <v>1.005468753925926</v>
+        <v>0.9727984113160422</v>
       </c>
     </row>
     <row r="181">
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-0.2289954575619842</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C181" t="n">
-        <v>3.985950883295848</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D181" t="n">
-        <v>1.005601238146395</v>
+        <v>0.9727885749040548</v>
       </c>
     </row>
     <row r="182">
@@ -3343,13 +3343,13 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1.39626906629671</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C182" t="n">
-        <v>3.701319143169218</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D182" t="n">
-        <v>1.005738768028872</v>
+        <v>0.9727788378519653</v>
       </c>
     </row>
     <row r="183">
@@ -3359,13 +3359,13 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2.763947220401747</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C183" t="n">
-        <v>2.778304264207053</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D183" t="n">
-        <v>1.005881638172936</v>
+        <v>0.9727691986609018</v>
       </c>
     </row>
     <row r="184">
@@ -3375,13 +3375,13 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>3.630333211230433</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C184" t="n">
-        <v>1.374069485084113</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D184" t="n">
-        <v>1.00603016661454</v>
+        <v>0.9727596558620046</v>
       </c>
     </row>
     <row r="185">
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>3.834981365444547</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.2631901562008984</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D185" t="n">
-        <v>1.006184697207807</v>
+        <v>0.9727502080156771</v>
       </c>
     </row>
     <row r="186">
@@ -3407,13 +3407,13 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>3.334179073346999</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C186" t="n">
-        <v>-1.835353336101716</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D186" t="n">
-        <v>1.006345602303752</v>
+        <v>0.9727408537108607</v>
       </c>
     </row>
     <row r="187">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>2.214906531694286</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C187" t="n">
-        <v>-3.047677128457235</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D187" t="n">
-        <v>1.006513285770075</v>
+        <v>0.9727315915643315</v>
       </c>
     </row>
     <row r="188">
@@ -3439,13 +3439,13 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.6848353633730294</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C188" t="n">
-        <v>-3.665238639459973</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D188" t="n">
-        <v>1.006688186403872</v>
+        <v>0.9727224202200156</v>
       </c>
     </row>
     <row r="189">
@@ -3455,13 +3455,13 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-0.9619195288793896</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C189" t="n">
-        <v>-3.561805932627212</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D189" t="n">
-        <v>1.006870781798298</v>
+        <v>0.9727133383483281</v>
       </c>
     </row>
     <row r="190">
@@ -3471,13 +3471,13 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-2.398787712454305</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C190" t="n">
-        <v>-2.750689527275825</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D190" t="n">
-        <v>1.007061592735347</v>
+        <v>0.9727043446455274</v>
       </c>
     </row>
     <row r="191">
@@ -3487,13 +3487,13 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-3.331412195063204</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C191" t="n">
-        <v>-1.389546046801223</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D191" t="n">
-        <v>1.007261188190289</v>
+        <v>0.9726954378330905</v>
       </c>
     </row>
     <row r="192">
@@ -3503,13 +3503,13 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-3.560617822976164</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C192" t="n">
-        <v>0.2444566398957916</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D192" t="n">
-        <v>1.007470191049681</v>
+        <v>0.9726866166571068</v>
       </c>
     </row>
     <row r="193">
@@ -3519,13 +3519,13 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-3.030117022420259</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C193" t="n">
-        <v>1.80684868436144</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D193" t="n">
-        <v>1.007689284664684</v>
+        <v>0.9726778798876878</v>
       </c>
     </row>
     <row r="194">
@@ -3535,13 +3535,13 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-1.846983273886051</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C194" t="n">
-        <v>2.956933260851105</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D194" t="n">
-        <v>1.007919220385846</v>
+        <v>0.9726692263183945</v>
       </c>
     </row>
     <row r="195">
@@ -3551,13 +3551,13 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-0.2674272334822137</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C195" t="n">
-        <v>3.433905707878987</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D195" t="n">
-        <v>1.008160826255509</v>
+        <v>0.9726606547656804</v>
       </c>
     </row>
     <row r="196">
@@ -3567,13 +3567,13 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1.352669313877325</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C196" t="n">
-        <v>3.121196294471462</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D196" t="n">
-        <v>1.008415017071115</v>
+        <v>0.9726521640683524</v>
       </c>
     </row>
     <row r="197">
@@ -3583,13 +3583,13 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>2.63483704035052</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C197" t="n">
-        <v>2.082665639560129</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D197" t="n">
-        <v>1.008682806078907</v>
+        <v>0.9726437530870434</v>
       </c>
     </row>
     <row r="198">
@@ -3599,13 +3599,13 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>3.267397067114612</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C198" t="n">
-        <v>0.5587339440631776</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D198" t="n">
-        <v>1.008965318615301</v>
+        <v>0.9726354207037036</v>
       </c>
     </row>
     <row r="199">
@@ -3615,13 +3615,13 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>3.086571122021367</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C199" t="n">
-        <v>-1.081327633311632</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D199" t="n">
-        <v>1.009263808085855</v>
+        <v>0.9726271658211024</v>
       </c>
     </row>
     <row r="200">
@@ -3631,13 +3631,13 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2.127804787510995</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C200" t="n">
-        <v>-2.424185449988278</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D200" t="n">
-        <v>1.009579674763841</v>
+        <v>0.9726189873623472</v>
       </c>
     </row>
     <row r="201">
@@ -3647,13 +3647,13 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.630250081715529</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C201" t="n">
-        <v>-3.116883005310826</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D201" t="n">
-        <v>1.009914488007545</v>
+        <v>0.9726108842704136</v>
       </c>
     </row>
     <row r="202">
@@ -3663,13 +3663,13 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-1.012792099794411</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C202" t="n">
-        <v>-2.965514614359889</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D202" t="n">
-        <v>1.010270012645847</v>
+        <v>0.9726028555076891</v>
       </c>
     </row>
     <row r="203">
@@ -3679,13 +3679,13 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-2.350950822120833</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C203" t="n">
-        <v>-2.000200554656149</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D203" t="n">
-        <v>1.010648240475764</v>
+        <v>0.9725949000555296</v>
       </c>
     </row>
     <row r="204">
@@ -3695,13 +3695,13 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-3.000297791674956</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.4833457451470465</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D204" t="n">
-        <v>1.01105142806852</v>
+        <v>0.9725870169138271</v>
       </c>
     </row>
     <row r="205">
@@ -3711,13 +3711,13 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-2.760851123051671</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C205" t="n">
-        <v>1.149187652025956</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D205" t="n">
-        <v>1.011482142412481</v>
+        <v>0.9725792051005919</v>
       </c>
     </row>
     <row r="206">
@@ -3727,13 +3727,13 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-1.691693541949622</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C206" t="n">
-        <v>2.405930293449404</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D206" t="n">
-        <v>1.011943316360523</v>
+        <v>0.9725714636515408</v>
       </c>
     </row>
     <row r="207">
@@ -3743,13 +3743,13 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-0.1139012386964526</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C207" t="n">
-        <v>2.888705031598606</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D207" t="n">
-        <v>1.01243831643621</v>
+        <v>0.972563791619702</v>
       </c>
     </row>
     <row r="208">
@@ -3759,13 +3759,13 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1.470843225456081</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C208" t="n">
-        <v>2.429265173360478</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D208" t="n">
-        <v>1.01297102634488</v>
+        <v>0.972556188075028</v>
       </c>
     </row>
     <row r="209">
@@ -3775,13 +3775,13 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>2.532235433847163</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C209" t="n">
-        <v>1.165957380316084</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D209" t="n">
-        <v>1.013545950615263</v>
+        <v>0.9725486521040182</v>
       </c>
     </row>
     <row r="210">
@@ -3791,13 +3791,13 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>2.692898221440732</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.4762020116683422</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D210" t="n">
-        <v>1.014168344285953</v>
+        <v>0.9725411828093536</v>
       </c>
     </row>
     <row r="211">
@@ -3807,13 +3807,13 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1.879105416505168</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C211" t="n">
-        <v>-1.911556069256606</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D211" t="n">
-        <v>1.014844376629241</v>
+        <v>0.972533779309538</v>
       </c>
     </row>
     <row r="212">
@@ -3823,13 +3823,13 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.3785503297505836</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C212" t="n">
-        <v>-2.597729831225782</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D212" t="n">
-        <v>1.015581339844316</v>
+        <v>0.9725264407385531</v>
       </c>
     </row>
     <row r="213">
@@ -3839,13 +3839,13 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-1.234882263717657</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C213" t="n">
-        <v>-2.252280462527038</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D213" t="n">
-        <v>1.016387917869574</v>
+        <v>0.9725191662455183</v>
       </c>
     </row>
     <row r="214">
@@ -3855,13 +3855,13 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>-2.30466965235877</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.996073893883001</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D214" t="n">
-        <v>1.017274536610131</v>
+        <v>0.9725119549943622</v>
       </c>
     </row>
     <row r="215">
@@ -3871,13 +3871,13 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-2.362856333458982</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C215" t="n">
-        <v>0.6528998203230605</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D215" t="n">
-        <v>1.018253825986954</v>
+        <v>0.9725048061635019</v>
       </c>
     </row>
     <row r="216">
@@ -3887,13 +3887,13 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-1.361954798650673</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C216" t="n">
-        <v>1.964652890690486</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D216" t="n">
-        <v>1.019341237971004</v>
+        <v>0.9724977189455283</v>
       </c>
     </row>
     <row r="217">
@@ -3903,13 +3903,13 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.2505204322226621</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C217" t="n">
-        <v>2.314543773423937</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D217" t="n">
-        <v>1.020555885969643</v>
+        <v>0.9724906925469055</v>
       </c>
     </row>
     <row r="218">
@@ -3919,13 +3919,13 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1.689340553269095</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C218" t="n">
-        <v>1.506894926912079</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D218" t="n">
-        <v>1.021921704365014</v>
+        <v>0.9724837261876705</v>
       </c>
     </row>
     <row r="219">
@@ -3935,13 +3935,13 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>2.19657273204579</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C219" t="n">
-        <v>-0.06320555293418306</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D219" t="n">
-        <v>1.02346908106776</v>
+        <v>0.9724768191011463</v>
       </c>
     </row>
     <row r="220">
@@ -3951,13 +3951,13 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1.466864729048517</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C220" t="n">
-        <v>-1.543079274020465</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D220" t="n">
-        <v>1.025237205892287</v>
+        <v>0.9724699705336577</v>
       </c>
     </row>
     <row r="221">
@@ -3967,13 +3967,13 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-0.1014919495111185</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C221" t="n">
-        <v>-2.055677878015258</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D221" t="n">
-        <v>1.027277532069141</v>
+        <v>0.97246317974426</v>
       </c>
     </row>
     <row r="222">
@@ -3983,13 +3983,13 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>-1.541463647896992</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C222" t="n">
-        <v>-1.250083992830097</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D222" t="n">
-        <v>1.029659023520265</v>
+        <v>0.9724564460044689</v>
       </c>
     </row>
     <row r="223">
@@ -3999,13 +3999,13 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-1.872589035421248</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C223" t="n">
-        <v>0.3663491105604879</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D223" t="n">
-        <v>1.032476372182217</v>
+        <v>0.9724497685980008</v>
       </c>
     </row>
     <row r="224">
@@ -4015,13 +4015,13 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-0.8176438778925604</v>
+        <v>-0.007508000118657742</v>
       </c>
       <c r="C224" t="n">
-        <v>1.635045573315379</v>
+        <v>-1.512046711166262</v>
       </c>
       <c r="D224" t="n">
-        <v>1.035863368426328</v>
+        <v>0.972443146820517</v>
       </c>
     </row>
     <row r="225">
@@ -4031,13 +4031,13 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.8292814302501034</v>
+        <v>-1.313726229747161</v>
       </c>
       <c r="C225" t="n">
-        <v>1.534362757506593</v>
+        <v>-0.5039326617719587</v>
       </c>
       <c r="D225" t="n">
-        <v>1.04001567380048</v>
+        <v>0.9724365799793776</v>
       </c>
     </row>
   </sheetData>
@@ -4078,7 +4078,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.804</v>
+        <v>412.8582</v>
       </c>
     </row>
   </sheetData>
